--- a/New Asser_Boundaries.xlsx
+++ b/New Asser_Boundaries.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY APP\PYTHON\Feeder Location\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6075FE91-265E-4EF3-9670-C91AE7047220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C1F3CF-D98A-4019-B85A-73CF90F04492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{FE138BFB-11B3-44A2-B7C5-3084C292C592}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE138BFB-11B3-44A2-B7C5-3084C292C592}"/>
   </bookViews>
   <sheets>
     <sheet name="Asser_Boundaries_Trimmed_UTF8" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Asser_Boundaries_Trimmed_UTF8!$A$1:$O$95</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="453">
   <si>
     <t>wkt</t>
   </si>
@@ -1332,9 +1335,6 @@
   </si>
   <si>
     <t xml:space="preserve">فيول </t>
-  </si>
-  <si>
-    <t>فيول ‎</t>
   </si>
   <si>
     <t>صرح التقنية</t>
@@ -2275,8 +2275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C901A9B-1A20-49A7-B8B3-579EE637F0B4}">
   <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2336,7 +2336,7 @@
         <v>213</v>
       </c>
       <c r="M1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N1" t="s">
         <v>215</v>
@@ -2515,7 +2515,7 @@
         <v>219</v>
       </c>
       <c r="N5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O5" t="s">
         <v>427</v>
@@ -2603,10 +2603,10 @@
         <v>428</v>
       </c>
       <c r="N7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="O7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -3111,7 +3111,7 @@
         <v>424</v>
       </c>
       <c r="O18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -3146,7 +3146,7 @@
         <v>5</v>
       </c>
       <c r="M19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N19" t="s">
         <v>424</v>
@@ -3642,7 +3642,7 @@
         <v>385</v>
       </c>
       <c r="N30" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O30" t="s">
         <v>427</v>
@@ -3683,7 +3683,7 @@
         <v>228</v>
       </c>
       <c r="N31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O31" t="s">
         <v>429</v>
@@ -3724,7 +3724,7 @@
         <v>228</v>
       </c>
       <c r="N32" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O32" t="s">
         <v>429</v>
@@ -3768,7 +3768,7 @@
         <v>341</v>
       </c>
       <c r="O33" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -3809,7 +3809,7 @@
         <v>341</v>
       </c>
       <c r="O34" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -3985,7 +3985,7 @@
         <v>343</v>
       </c>
       <c r="O38" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
@@ -4102,7 +4102,7 @@
         <v>5</v>
       </c>
       <c r="M41" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N41" t="s">
         <v>309</v>
@@ -4278,7 +4278,7 @@
         <v>5</v>
       </c>
       <c r="M45" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N45" t="s">
         <v>313</v>
@@ -4319,7 +4319,7 @@
         <v>5</v>
       </c>
       <c r="M46" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N46" t="s">
         <v>314</v>
@@ -4360,7 +4360,7 @@
         <v>5</v>
       </c>
       <c r="M47" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N47" t="s">
         <v>315</v>
@@ -4527,7 +4527,7 @@
         <v>385</v>
       </c>
       <c r="N51" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O51" t="s">
         <v>432</v>
@@ -4662,7 +4662,7 @@
         <v>225</v>
       </c>
       <c r="N54" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O54" t="s">
         <v>427</v>
@@ -4750,7 +4750,7 @@
         <v>217</v>
       </c>
       <c r="N56" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O56" t="s">
         <v>427</v>
@@ -4979,7 +4979,7 @@
         <v>219</v>
       </c>
       <c r="N61" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O61" t="s">
         <v>427</v>
@@ -5020,7 +5020,7 @@
         <v>385</v>
       </c>
       <c r="N62" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="O62" t="s">
         <v>427</v>
@@ -5061,7 +5061,7 @@
         <v>391</v>
       </c>
       <c r="N63" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O63" t="s">
         <v>429</v>
@@ -5842,7 +5842,7 @@
         <v>385</v>
       </c>
       <c r="N80" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O80" t="s">
         <v>205</v>
@@ -5883,7 +5883,7 @@
         <v>385</v>
       </c>
       <c r="N81" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O81" t="s">
         <v>205</v>
@@ -6112,7 +6112,7 @@
         <v>220</v>
       </c>
       <c r="N86" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O86" t="s">
         <v>429</v>
@@ -6294,7 +6294,7 @@
         <v>214</v>
       </c>
       <c r="N90" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O90" t="s">
         <v>429</v>
@@ -6508,16 +6508,17 @@
         <v>5</v>
       </c>
       <c r="M95" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N95" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O95" t="s">
         <v>429</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O95" xr:uid="{0C901A9B-1A20-49A7-B8B3-579EE637F0B4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/New Asser_Boundaries.xlsx
+++ b/New Asser_Boundaries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28617"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY APP\PYTHON\Feeder Location\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C1F3CF-D98A-4019-B85A-73CF90F04492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EBEF7B-0D34-4963-8744-416DB4ABF5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE138BFB-11B3-44A2-B7C5-3084C292C592}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="452">
   <si>
     <t>wkt</t>
   </si>
@@ -1389,9 +1389,6 @@
   </si>
   <si>
     <t>يحى البارقي</t>
-  </si>
-  <si>
-    <t>لوسط الجنوبي</t>
   </si>
   <si>
     <t>CONTRACTOR</t>
@@ -2276,24 +2273,24 @@
   <dimension ref="A1:O95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.125" customWidth="1"/>
-    <col min="3" max="3" width="30.625" customWidth="1"/>
-    <col min="4" max="4" width="38.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.375" customWidth="1"/>
-    <col min="12" max="12" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.625" customWidth="1"/>
+    <col min="5" max="5" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.375" customWidth="1"/>
+    <col min="13" max="13" width="16.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -2306,37 +2303,37 @@
         <v>206</v>
       </c>
       <c r="C1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>204</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>207</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>208</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>209</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>347</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>210</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>353</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>211</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>213</v>
-      </c>
-      <c r="M1" t="s">
-        <v>452</v>
       </c>
       <c r="N1" t="s">
         <v>215</v>
@@ -2353,37 +2350,37 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>255</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>279</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>3189</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>348</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>51</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>212</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>5</v>
-      </c>
-      <c r="M2" t="s">
-        <v>214</v>
       </c>
       <c r="N2" t="s">
         <v>394</v>
@@ -2400,37 +2397,37 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>256</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>280</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>8588</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>6</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>348</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>54</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>354</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>383</v>
       </c>
       <c r="N3" t="s">
         <v>280</v>
@@ -2447,31 +2444,31 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>257</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>282</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>5069</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>349</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>5</v>
-      </c>
-      <c r="M4" t="s">
-        <v>217</v>
       </c>
       <c r="N4" t="s">
         <v>305</v>
@@ -2488,31 +2485,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>258</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>281</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>5276</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>349</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>5</v>
-      </c>
-      <c r="M5" t="s">
-        <v>219</v>
       </c>
       <c r="N5" t="s">
         <v>447</v>
@@ -2529,37 +2526,37 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>259</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>283</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>4674</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>348</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>51</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>218</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>5</v>
-      </c>
-      <c r="M6" t="s">
-        <v>384</v>
       </c>
       <c r="N6" t="s">
         <v>395</v>
@@ -2576,31 +2573,31 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
+        <v>428</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>260</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>284</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>4827</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>4</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>348</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>5</v>
-      </c>
-      <c r="M7" t="s">
-        <v>428</v>
       </c>
       <c r="N7" t="s">
         <v>448</v>
@@ -2617,37 +2614,37 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>261</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>285</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>6079</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>3</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>350</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>53</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>355</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>26</v>
-      </c>
-      <c r="M8" t="s">
-        <v>219</v>
       </c>
       <c r="N8" t="s">
         <v>396</v>
@@ -2664,37 +2661,37 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>262</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>286</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>5857</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>4</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>348</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>52</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>356</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>11</v>
-      </c>
-      <c r="M9" t="s">
-        <v>220</v>
       </c>
       <c r="N9" t="s">
         <v>397</v>
@@ -2711,31 +2708,31 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
+        <v>431</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>263</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>25</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>287</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1963</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>348</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>5</v>
-      </c>
-      <c r="M10" t="s">
-        <v>431</v>
       </c>
       <c r="N10" t="s">
         <v>287</v>
@@ -2752,37 +2749,37 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>264</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>28</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>288</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>7620</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>7</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>351</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>52</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>222</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>5</v>
-      </c>
-      <c r="M11" t="s">
-        <v>214</v>
       </c>
       <c r="N11" t="s">
         <v>398</v>
@@ -2799,37 +2796,37 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>265</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>31</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>339</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>8018</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>9</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>352</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>52</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>357</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>13</v>
-      </c>
-      <c r="M12" t="s">
-        <v>217</v>
       </c>
       <c r="N12" t="s">
         <v>425</v>
@@ -2846,37 +2843,37 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
+        <v>385</v>
+      </c>
+      <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>266</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>34</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>289</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>4282</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>2</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>350</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>52</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>358</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>13</v>
-      </c>
-      <c r="M13" t="s">
-        <v>385</v>
       </c>
       <c r="N13" t="s">
         <v>399</v>
@@ -2893,37 +2890,37 @@
         <v>38</v>
       </c>
       <c r="C14" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>267</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>290</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>4119</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>352</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>51</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>224</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>5</v>
-      </c>
-      <c r="M14" t="s">
-        <v>219</v>
       </c>
       <c r="N14" t="s">
         <v>400</v>
@@ -2940,31 +2937,31 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
+        <v>387</v>
+      </c>
+      <c r="D15" t="s">
         <v>41</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>264</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>40</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>291</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>4393</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>4</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>350</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>5</v>
-      </c>
-      <c r="M15" t="s">
-        <v>387</v>
       </c>
       <c r="N15" t="s">
         <v>402</v>
@@ -2981,37 +2978,37 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D16" t="s">
         <v>43</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>264</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>42</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>292</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>12254</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>9</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>352</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>54</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>359</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>39</v>
-      </c>
-      <c r="M16" t="s">
-        <v>225</v>
       </c>
       <c r="N16" t="s">
         <v>401</v>
@@ -3028,37 +3025,37 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" t="s">
         <v>45</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>264</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>44</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>291</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>10577</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>8</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>352</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>51</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>226</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>6</v>
-      </c>
-      <c r="M17" t="s">
-        <v>227</v>
       </c>
       <c r="N17" t="s">
         <v>402</v>
@@ -3075,37 +3072,37 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
+        <v>389</v>
+      </c>
+      <c r="D18" t="s">
         <v>47</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>268</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>46</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>293</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>7389</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>4</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>352</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>51</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>360</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>6</v>
-      </c>
-      <c r="M18" t="s">
-        <v>389</v>
       </c>
       <c r="N18" t="s">
         <v>424</v>
@@ -3122,31 +3119,31 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
+        <v>433</v>
+      </c>
+      <c r="D19" t="s">
         <v>49</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>264</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>48</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>293</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>12543</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>6</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>349</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>5</v>
-      </c>
-      <c r="M19" t="s">
-        <v>433</v>
       </c>
       <c r="N19" t="s">
         <v>424</v>
@@ -3163,37 +3160,37 @@
         <v>38</v>
       </c>
       <c r="C20" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" t="s">
         <v>51</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>267</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>50</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>294</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>6781</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>4</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>349</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>52</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>361</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>14</v>
-      </c>
-      <c r="M20" t="s">
-        <v>228</v>
       </c>
       <c r="N20" t="s">
         <v>403</v>
@@ -3210,31 +3207,31 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" t="s">
         <v>53</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>263</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>52</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>295</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>3923</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>1</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>348</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>5</v>
-      </c>
-      <c r="M21" t="s">
-        <v>219</v>
       </c>
       <c r="N21" t="s">
         <v>295</v>
@@ -3251,31 +3248,31 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
+        <v>390</v>
+      </c>
+      <c r="D22" t="s">
         <v>55</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>263</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>54</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>296</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>2788</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>1</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>351</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>5</v>
-      </c>
-      <c r="M22" t="s">
-        <v>390</v>
       </c>
       <c r="N22" t="s">
         <v>296</v>
@@ -3292,31 +3289,31 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23" t="s">
         <v>57</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>263</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>56</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>297</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>7348</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>3</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>352</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>5</v>
-      </c>
-      <c r="M23" t="s">
-        <v>219</v>
       </c>
       <c r="N23" t="s">
         <v>297</v>
@@ -3333,37 +3330,37 @@
         <v>59</v>
       </c>
       <c r="C24" t="s">
+        <v>386</v>
+      </c>
+      <c r="D24" t="s">
         <v>60</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>269</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>58</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>298</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>7238</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>5</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>352</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>51</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>229</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>9</v>
-      </c>
-      <c r="M24" t="s">
-        <v>386</v>
       </c>
       <c r="N24" t="s">
         <v>404</v>
@@ -3380,37 +3377,37 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" t="s">
         <v>62</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>270</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>61</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>299</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>10374</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>7</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>352</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>51</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>230</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>5</v>
-      </c>
-      <c r="M25" t="s">
-        <v>217</v>
       </c>
       <c r="N25" t="s">
         <v>405</v>
@@ -3427,37 +3424,37 @@
         <v>32</v>
       </c>
       <c r="C26" t="s">
+        <v>387</v>
+      </c>
+      <c r="D26" t="s">
         <v>64</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>270</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>63</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>300</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>14324</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>4</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>351</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>52</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>362</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>16</v>
-      </c>
-      <c r="M26" t="s">
-        <v>387</v>
       </c>
       <c r="N26" t="s">
         <v>406</v>
@@ -3474,37 +3471,37 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
+        <v>385</v>
+      </c>
+      <c r="D27" t="s">
         <v>66</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>271</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>65</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>301</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>6782</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>7</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>349</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>52</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>363</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>11</v>
-      </c>
-      <c r="M27" t="s">
-        <v>385</v>
       </c>
       <c r="N27" t="s">
         <v>407</v>
@@ -3521,37 +3518,37 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
+        <v>383</v>
+      </c>
+      <c r="D28" t="s">
         <v>68</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>271</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>67</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>302</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>9826</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>4</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>349</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>51</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>231</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>8</v>
-      </c>
-      <c r="M28" t="s">
-        <v>383</v>
       </c>
       <c r="N28" t="s">
         <v>408</v>
@@ -3568,37 +3565,37 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
+        <v>388</v>
+      </c>
+      <c r="D29" t="s">
         <v>70</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>271</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>69</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>302</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>10957</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>3</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>349</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>51</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>232</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>5</v>
-      </c>
-      <c r="M29" t="s">
-        <v>388</v>
       </c>
       <c r="N29" t="s">
         <v>408</v>
@@ -3615,31 +3612,31 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
+        <v>385</v>
+      </c>
+      <c r="D30" t="s">
         <v>72</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>261</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>71</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>303</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>7940</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>3</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>351</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>5</v>
-      </c>
-      <c r="M30" t="s">
-        <v>385</v>
       </c>
       <c r="N30" t="s">
         <v>437</v>
@@ -3656,31 +3653,31 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
+        <v>228</v>
+      </c>
+      <c r="D31" t="s">
         <v>74</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>261</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>73</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>304</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>5913</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>1</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>350</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>5</v>
-      </c>
-      <c r="M31" t="s">
-        <v>228</v>
       </c>
       <c r="N31" t="s">
         <v>438</v>
@@ -3697,31 +3694,31 @@
         <v>20</v>
       </c>
       <c r="C32" t="s">
+        <v>228</v>
+      </c>
+      <c r="D32" t="s">
         <v>76</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>272</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>75</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>340</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>5332</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>4</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>348</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>5</v>
-      </c>
-      <c r="M32" t="s">
-        <v>228</v>
       </c>
       <c r="N32" t="s">
         <v>449</v>
@@ -3738,31 +3735,31 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
+        <v>237</v>
+      </c>
+      <c r="D33" t="s">
         <v>78</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>273</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>77</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>341</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>4771</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>7</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>350</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>5</v>
-      </c>
-      <c r="M33" t="s">
-        <v>237</v>
       </c>
       <c r="N33" t="s">
         <v>341</v>
@@ -3779,31 +3776,31 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" t="s">
         <v>80</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>273</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>79</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>341</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>6266</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>3</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>349</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>5</v>
-      </c>
-      <c r="M34" t="s">
-        <v>237</v>
       </c>
       <c r="N34" t="s">
         <v>341</v>
@@ -3820,37 +3817,37 @@
         <v>8</v>
       </c>
       <c r="C35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D35" t="s">
         <v>82</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>257</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>81</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>305</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>11011</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>6</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>348</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>51</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>233</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>13</v>
-      </c>
-      <c r="M35" t="s">
-        <v>217</v>
       </c>
       <c r="N35" t="s">
         <v>305</v>
@@ -3867,31 +3864,31 @@
         <v>14</v>
       </c>
       <c r="C36" t="s">
+        <v>384</v>
+      </c>
+      <c r="D36" t="s">
         <v>84</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>259</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>83</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>306</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>5907</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>4</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>348</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>5</v>
-      </c>
-      <c r="M36" t="s">
-        <v>384</v>
       </c>
       <c r="N36" t="s">
         <v>306</v>
@@ -3908,31 +3905,31 @@
         <v>17</v>
       </c>
       <c r="C37" t="s">
+        <v>221</v>
+      </c>
+      <c r="D37" t="s">
         <v>86</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>260</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>85</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>342</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>3213</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>3</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>349</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>5</v>
-      </c>
-      <c r="M37" t="s">
-        <v>221</v>
       </c>
       <c r="N37" t="s">
         <v>342</v>
@@ -3949,37 +3946,37 @@
         <v>17</v>
       </c>
       <c r="C38" t="s">
+        <v>428</v>
+      </c>
+      <c r="D38" t="s">
         <v>88</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>260</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>87</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>343</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>4147</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>7</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>349</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>51</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>364</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>5</v>
-      </c>
-      <c r="M38" t="s">
-        <v>428</v>
       </c>
       <c r="N38" t="s">
         <v>343</v>
@@ -3996,31 +3993,31 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
+        <v>219</v>
+      </c>
+      <c r="D39" t="s">
         <v>90</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>255</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>89</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>307</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>2643</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>2</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>349</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>5</v>
-      </c>
-      <c r="M39" t="s">
-        <v>219</v>
       </c>
       <c r="N39" t="s">
         <v>307</v>
@@ -4037,31 +4034,31 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
+        <v>219</v>
+      </c>
+      <c r="D40" t="s">
         <v>92</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>255</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>91</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>308</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>2717</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>2</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>349</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>5</v>
-      </c>
-      <c r="M40" t="s">
-        <v>219</v>
       </c>
       <c r="N40" t="s">
         <v>308</v>
@@ -4078,31 +4075,31 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
+        <v>434</v>
+      </c>
+      <c r="D41" t="s">
         <v>94</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>255</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>93</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>309</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>4397</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>2</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>350</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>5</v>
-      </c>
-      <c r="M41" t="s">
-        <v>434</v>
       </c>
       <c r="N41" t="s">
         <v>309</v>
@@ -4119,37 +4116,37 @@
         <v>38</v>
       </c>
       <c r="C42" t="s">
+        <v>385</v>
+      </c>
+      <c r="D42" t="s">
         <v>96</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>267</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>95</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>310</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>5678</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>3</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>348</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>51</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>234</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>8</v>
-      </c>
-      <c r="M42" t="s">
-        <v>385</v>
       </c>
       <c r="N42" t="s">
         <v>409</v>
@@ -4166,31 +4163,31 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
+        <v>219</v>
+      </c>
+      <c r="D43" t="s">
         <v>98</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>256</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>97</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>311</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>4511</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>2</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>351</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>5</v>
-      </c>
-      <c r="M43" t="s">
-        <v>219</v>
       </c>
       <c r="N43" t="s">
         <v>311</v>
@@ -4207,37 +4204,37 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
+        <v>219</v>
+      </c>
+      <c r="D44" t="s">
         <v>100</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>256</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>99</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>312</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>11121</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>3</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>350</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>52</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>365</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>10</v>
-      </c>
-      <c r="M44" t="s">
-        <v>219</v>
       </c>
       <c r="N44" t="s">
         <v>312</v>
@@ -4254,31 +4251,31 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
+        <v>433</v>
+      </c>
+      <c r="D45" t="s">
         <v>102</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>256</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>101</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>313</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>4749</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>1</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>350</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>5</v>
-      </c>
-      <c r="M45" t="s">
-        <v>433</v>
       </c>
       <c r="N45" t="s">
         <v>313</v>
@@ -4295,31 +4292,31 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
+        <v>435</v>
+      </c>
+      <c r="D46" t="s">
         <v>104</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>256</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>103</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>314</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>5192</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>1</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>350</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>5</v>
-      </c>
-      <c r="M46" t="s">
-        <v>435</v>
       </c>
       <c r="N46" t="s">
         <v>314</v>
@@ -4336,31 +4333,31 @@
         <v>5</v>
       </c>
       <c r="C47" t="s">
+        <v>436</v>
+      </c>
+      <c r="D47" t="s">
         <v>106</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>256</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>105</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>315</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>6792</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>3</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>348</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>5</v>
-      </c>
-      <c r="M47" t="s">
-        <v>436</v>
       </c>
       <c r="N47" t="s">
         <v>315</v>
@@ -4377,31 +4374,31 @@
         <v>26</v>
       </c>
       <c r="C48" t="s">
+        <v>219</v>
+      </c>
+      <c r="D48" t="s">
         <v>108</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>263</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>107</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>316</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>6596</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>1</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>352</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>5</v>
-      </c>
-      <c r="M48" t="s">
-        <v>219</v>
       </c>
       <c r="N48" t="s">
         <v>316</v>
@@ -4418,31 +4415,31 @@
         <v>26</v>
       </c>
       <c r="C49" t="s">
+        <v>386</v>
+      </c>
+      <c r="D49" t="s">
         <v>110</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>263</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>109</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>317</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>3485</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>2</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>351</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>5</v>
-      </c>
-      <c r="M49" t="s">
-        <v>386</v>
       </c>
       <c r="N49" t="s">
         <v>317</v>
@@ -4459,31 +4456,31 @@
         <v>112</v>
       </c>
       <c r="C50" t="s">
+        <v>220</v>
+      </c>
+      <c r="D50" t="s">
         <v>113</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>274</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>111</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>318</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>9610</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>7</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>348</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>5</v>
-      </c>
-      <c r="M50" t="s">
-        <v>220</v>
       </c>
       <c r="N50" t="s">
         <v>343</v>
@@ -4500,31 +4497,31 @@
         <v>112</v>
       </c>
       <c r="C51" t="s">
+        <v>385</v>
+      </c>
+      <c r="D51" t="s">
         <v>115</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>274</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>114</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>319</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>18808</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>8</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>352</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>5</v>
-      </c>
-      <c r="M51" t="s">
-        <v>385</v>
       </c>
       <c r="N51" t="s">
         <v>439</v>
@@ -4541,37 +4538,37 @@
         <v>112</v>
       </c>
       <c r="C52" t="s">
+        <v>389</v>
+      </c>
+      <c r="D52" t="s">
         <v>117</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>274</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>116</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>320</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>9675</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>5</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>348</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>52</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>366</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>17</v>
-      </c>
-      <c r="M52" t="s">
-        <v>389</v>
       </c>
       <c r="N52" t="s">
         <v>410</v>
@@ -4588,37 +4585,37 @@
         <v>112</v>
       </c>
       <c r="C53" t="s">
+        <v>390</v>
+      </c>
+      <c r="D53" t="s">
         <v>119</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>274</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>118</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>318</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>3626</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>2</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>348</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>51</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>235</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>8</v>
-      </c>
-      <c r="M53" t="s">
-        <v>390</v>
       </c>
       <c r="N53" t="s">
         <v>343</v>
@@ -4635,31 +4632,31 @@
         <v>14</v>
       </c>
       <c r="C54" t="s">
+        <v>225</v>
+      </c>
+      <c r="D54" t="s">
         <v>121</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>275</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>120</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>344</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>3633</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>3</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>349</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>5</v>
-      </c>
-      <c r="M54" t="s">
-        <v>225</v>
       </c>
       <c r="N54" t="s">
         <v>450</v>
@@ -4676,37 +4673,37 @@
         <v>112</v>
       </c>
       <c r="C55" t="s">
+        <v>214</v>
+      </c>
+      <c r="D55" t="s">
         <v>123</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>276</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>122</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>321</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>3174</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>2</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>349</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>51</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>367</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>11</v>
-      </c>
-      <c r="M55" t="s">
-        <v>214</v>
       </c>
       <c r="N55" t="s">
         <v>426</v>
@@ -4723,31 +4720,31 @@
         <v>112</v>
       </c>
       <c r="C56" t="s">
+        <v>217</v>
+      </c>
+      <c r="D56" t="s">
         <v>125</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>274</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>124</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>321</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>4859</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>3</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>348</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>5</v>
-      </c>
-      <c r="M56" t="s">
-        <v>217</v>
       </c>
       <c r="N56" t="s">
         <v>440</v>
@@ -4764,37 +4761,37 @@
         <v>112</v>
       </c>
       <c r="C57" t="s">
+        <v>237</v>
+      </c>
+      <c r="D57" t="s">
         <v>127</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>274</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>126</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>320</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>7832</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>6</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>349</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>51</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>236</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>5</v>
-      </c>
-      <c r="M57" t="s">
-        <v>237</v>
       </c>
       <c r="N57" t="s">
         <v>410</v>
@@ -4811,37 +4808,37 @@
         <v>112</v>
       </c>
       <c r="C58" t="s">
+        <v>214</v>
+      </c>
+      <c r="D58" t="s">
         <v>129</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>274</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>128</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>322</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>8786</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>12</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>350</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>51</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>238</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>5</v>
-      </c>
-      <c r="M58" t="s">
-        <v>214</v>
       </c>
       <c r="N58" t="s">
         <v>411</v>
@@ -4858,37 +4855,37 @@
         <v>112</v>
       </c>
       <c r="C59" t="s">
+        <v>385</v>
+      </c>
+      <c r="D59" t="s">
         <v>131</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>274</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>130</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>319</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>21264</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>12</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>350</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>58</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>368</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>49</v>
-      </c>
-      <c r="M59" t="s">
-        <v>385</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -4905,37 +4902,37 @@
         <v>20</v>
       </c>
       <c r="C60" t="s">
+        <v>391</v>
+      </c>
+      <c r="D60" t="s">
         <v>133</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>261</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>132</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>323</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>8654</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>4</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>350</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>51</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>239</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>9</v>
-      </c>
-      <c r="M60" t="s">
-        <v>391</v>
       </c>
       <c r="N60" t="s">
         <v>412</v>
@@ -4952,31 +4949,31 @@
         <v>20</v>
       </c>
       <c r="C61" t="s">
+        <v>219</v>
+      </c>
+      <c r="D61" t="s">
         <v>135</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>261</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>134</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>324</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>25078</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>11</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>352</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>5</v>
-      </c>
-      <c r="M61" t="s">
-        <v>219</v>
       </c>
       <c r="N61" t="s">
         <v>441</v>
@@ -4993,31 +4990,31 @@
         <v>20</v>
       </c>
       <c r="C62" t="s">
+        <v>385</v>
+      </c>
+      <c r="D62" t="s">
         <v>137</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>261</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>136</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>325</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>20734</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>15</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>352</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>5</v>
-      </c>
-      <c r="M62" t="s">
-        <v>385</v>
       </c>
       <c r="N62" t="s">
         <v>442</v>
@@ -5034,31 +5031,31 @@
         <v>20</v>
       </c>
       <c r="C63" t="s">
+        <v>391</v>
+      </c>
+      <c r="D63" t="s">
         <v>139</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>261</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>138</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>326</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>6444</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>4</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>349</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>5</v>
-      </c>
-      <c r="M63" t="s">
-        <v>391</v>
       </c>
       <c r="N63" t="s">
         <v>443</v>
@@ -5075,31 +5072,31 @@
         <v>23</v>
       </c>
       <c r="C64" t="s">
+        <v>240</v>
+      </c>
+      <c r="D64" t="s">
         <v>141</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>262</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>140</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>327</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>2706</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>3</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>350</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>5</v>
-      </c>
-      <c r="M64" t="s">
-        <v>240</v>
       </c>
       <c r="N64" t="s">
         <v>415</v>
@@ -5116,37 +5113,37 @@
         <v>23</v>
       </c>
       <c r="C65" t="s">
+        <v>221</v>
+      </c>
+      <c r="D65" t="s">
         <v>143</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>262</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>142</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>328</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>2411</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>6</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>349</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>53</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>369</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>17</v>
-      </c>
-      <c r="M65" t="s">
-        <v>221</v>
       </c>
       <c r="N65" t="s">
         <v>413</v>
@@ -5163,37 +5160,37 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
+        <v>220</v>
+      </c>
+      <c r="D66" t="s">
         <v>145</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>262</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>144</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>286</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>3416</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>2</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>349</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>51</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>241</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>8</v>
-      </c>
-      <c r="M66" t="s">
-        <v>220</v>
       </c>
       <c r="N66" t="s">
         <v>397</v>
@@ -5210,37 +5207,37 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
+        <v>383</v>
+      </c>
+      <c r="D67" t="s">
         <v>147</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>262</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>146</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>329</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>5039</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>11</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>352</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>52</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>370</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>11</v>
-      </c>
-      <c r="M67" t="s">
-        <v>383</v>
       </c>
       <c r="N67" t="s">
         <v>414</v>
@@ -5257,37 +5254,37 @@
         <v>23</v>
       </c>
       <c r="C68" t="s">
+        <v>392</v>
+      </c>
+      <c r="D68" t="s">
         <v>149</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>262</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>148</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>327</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>2505</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>4</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>349</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>51</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>242</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>6</v>
-      </c>
-      <c r="M68" t="s">
-        <v>392</v>
       </c>
       <c r="N68" t="s">
         <v>415</v>
@@ -5304,37 +5301,37 @@
         <v>23</v>
       </c>
       <c r="C69" t="s">
+        <v>237</v>
+      </c>
+      <c r="D69" t="s">
         <v>151</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>262</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>150</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>330</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>21574</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>6</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>352</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>52</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>371</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>18</v>
-      </c>
-      <c r="M69" t="s">
-        <v>237</v>
       </c>
       <c r="N69" t="s">
         <v>416</v>
@@ -5351,37 +5348,37 @@
         <v>23</v>
       </c>
       <c r="C70" t="s">
+        <v>388</v>
+      </c>
+      <c r="D70" t="s">
         <v>153</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>262</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>152</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>286</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>5571</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>5</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>352</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>52</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>372</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>13</v>
-      </c>
-      <c r="M70" t="s">
-        <v>388</v>
       </c>
       <c r="N70" t="s">
         <v>397</v>
@@ -5398,37 +5395,37 @@
         <v>23</v>
       </c>
       <c r="C71" t="s">
+        <v>391</v>
+      </c>
+      <c r="D71" t="s">
         <v>155</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>262</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>154</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>331</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>24040</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>25</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>348</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>53</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>373</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>20</v>
-      </c>
-      <c r="M71" t="s">
-        <v>391</v>
       </c>
       <c r="N71" t="s">
         <v>417</v>
@@ -5445,37 +5442,37 @@
         <v>23</v>
       </c>
       <c r="C72" t="s">
+        <v>390</v>
+      </c>
+      <c r="D72" t="s">
         <v>157</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>262</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>156</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>288</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>37502</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>26</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>352</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>56</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>374</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>32</v>
-      </c>
-      <c r="M72" t="s">
-        <v>390</v>
       </c>
       <c r="N72" t="s">
         <v>223</v>
@@ -5492,37 +5489,37 @@
         <v>23</v>
       </c>
       <c r="C73" t="s">
+        <v>237</v>
+      </c>
+      <c r="D73" t="s">
         <v>159</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>262</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>158</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>330</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>7957</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>6</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>352</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>53</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>375</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>27</v>
-      </c>
-      <c r="M73" t="s">
-        <v>237</v>
       </c>
       <c r="N73" t="s">
         <v>416</v>
@@ -5539,37 +5536,37 @@
         <v>23</v>
       </c>
       <c r="C74" t="s">
+        <v>221</v>
+      </c>
+      <c r="D74" t="s">
         <v>161</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>262</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>160</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>328</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>4665</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>5</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>348</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>51</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>243</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>5</v>
-      </c>
-      <c r="M74" t="s">
-        <v>221</v>
       </c>
       <c r="N74" t="s">
         <v>413</v>
@@ -5586,37 +5583,37 @@
         <v>23</v>
       </c>
       <c r="C75" t="s">
+        <v>244</v>
+      </c>
+      <c r="D75" t="s">
         <v>163</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>262</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>162</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>286</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>9779</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>11</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>351</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>52</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>376</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>19</v>
-      </c>
-      <c r="M75" t="s">
-        <v>244</v>
       </c>
       <c r="N75" t="s">
         <v>397</v>
@@ -5633,37 +5630,37 @@
         <v>23</v>
       </c>
       <c r="C76" t="s">
+        <v>391</v>
+      </c>
+      <c r="D76" t="s">
         <v>165</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>262</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>164</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>331</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>10503</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>11</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>350</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>53</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>377</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>23</v>
-      </c>
-      <c r="M76" t="s">
-        <v>391</v>
       </c>
       <c r="N76" t="s">
         <v>417</v>
@@ -5680,37 +5677,37 @@
         <v>23</v>
       </c>
       <c r="C77" t="s">
+        <v>246</v>
+      </c>
+      <c r="D77" t="s">
         <v>167</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>262</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>166</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>330</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>10227</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>6</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>350</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>51</v>
       </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
         <v>245</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>5</v>
-      </c>
-      <c r="M77" t="s">
-        <v>246</v>
       </c>
       <c r="N77" t="s">
         <v>416</v>
@@ -5727,31 +5724,31 @@
         <v>35</v>
       </c>
       <c r="C78" t="s">
+        <v>217</v>
+      </c>
+      <c r="D78" t="s">
         <v>169</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>266</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>168</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>332</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>7588</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>5</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>352</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>5</v>
-      </c>
-      <c r="M78" t="s">
-        <v>217</v>
       </c>
       <c r="N78" t="s">
         <v>421</v>
@@ -5768,37 +5765,37 @@
         <v>35</v>
       </c>
       <c r="C79" t="s">
+        <v>393</v>
+      </c>
+      <c r="D79" t="s">
         <v>171</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>266</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>170</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>333</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>11546</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>8</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>350</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>51</v>
       </c>
-      <c r="K79" t="s">
+      <c r="L79" t="s">
         <v>247</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>7</v>
-      </c>
-      <c r="M79" t="s">
-        <v>393</v>
       </c>
       <c r="N79" t="s">
         <v>418</v>
@@ -5815,31 +5812,31 @@
         <v>35</v>
       </c>
       <c r="C80" t="s">
+        <v>385</v>
+      </c>
+      <c r="D80" t="s">
         <v>173</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>266</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>172</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>334</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>5102</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>2</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>348</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>5</v>
-      </c>
-      <c r="M80" t="s">
-        <v>385</v>
       </c>
       <c r="N80" t="s">
         <v>444</v>
@@ -5856,31 +5853,31 @@
         <v>35</v>
       </c>
       <c r="C81" t="s">
+        <v>385</v>
+      </c>
+      <c r="D81" t="s">
         <v>175</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>266</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>174</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>334</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>5134</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>2</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>351</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>5</v>
-      </c>
-      <c r="M81" t="s">
-        <v>385</v>
       </c>
       <c r="N81" t="s">
         <v>444</v>
@@ -5897,37 +5894,37 @@
         <v>35</v>
       </c>
       <c r="C82" t="s">
+        <v>385</v>
+      </c>
+      <c r="D82" t="s">
         <v>177</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>266</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>176</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>289</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>6703</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>4</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>350</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>51</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
         <v>248</v>
       </c>
-      <c r="L82">
+      <c r="M82">
         <v>7</v>
-      </c>
-      <c r="M82" t="s">
-        <v>385</v>
       </c>
       <c r="N82" t="s">
         <v>399</v>
@@ -5944,37 +5941,37 @@
         <v>35</v>
       </c>
       <c r="C83" t="s">
+        <v>250</v>
+      </c>
+      <c r="D83" t="s">
         <v>179</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>266</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>178</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>335</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>3344</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>2</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>352</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>51</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>249</v>
       </c>
-      <c r="L83">
+      <c r="M83">
         <v>7</v>
-      </c>
-      <c r="M83" t="s">
-        <v>250</v>
       </c>
       <c r="N83" t="s">
         <v>419</v>
@@ -5991,37 +5988,37 @@
         <v>35</v>
       </c>
       <c r="C84" t="s">
+        <v>251</v>
+      </c>
+      <c r="D84" t="s">
         <v>181</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>266</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>180</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>336</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>11034</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>6</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>352</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>53</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L84" t="s">
         <v>378</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <v>17</v>
-      </c>
-      <c r="M84" t="s">
-        <v>251</v>
       </c>
       <c r="N84" t="s">
         <v>420</v>
@@ -6038,37 +6035,37 @@
         <v>35</v>
       </c>
       <c r="C85" t="s">
+        <v>217</v>
+      </c>
+      <c r="D85" t="s">
         <v>183</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>266</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>182</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>332</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>13336</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>11</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>352</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>53</v>
       </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
         <v>379</v>
       </c>
-      <c r="L85">
+      <c r="M85">
         <v>21</v>
-      </c>
-      <c r="M85" t="s">
-        <v>217</v>
       </c>
       <c r="N85" t="s">
         <v>421</v>
@@ -6085,31 +6082,31 @@
         <v>35</v>
       </c>
       <c r="C86" t="s">
+        <v>220</v>
+      </c>
+      <c r="D86" t="s">
         <v>185</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>277</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>184</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>345</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>15397</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>8</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>349</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>5</v>
-      </c>
-      <c r="M86" t="s">
-        <v>220</v>
       </c>
       <c r="N86" t="s">
         <v>445</v>
@@ -6126,37 +6123,37 @@
         <v>35</v>
       </c>
       <c r="C87" t="s">
+        <v>252</v>
+      </c>
+      <c r="D87" t="s">
         <v>187</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>266</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>186</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>337</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>3697</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>6</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>348</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>53</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" t="s">
         <v>380</v>
       </c>
-      <c r="L87">
+      <c r="M87">
         <v>25</v>
-      </c>
-      <c r="M87" t="s">
-        <v>252</v>
       </c>
       <c r="N87" t="s">
         <v>422</v>
@@ -6173,37 +6170,37 @@
         <v>35</v>
       </c>
       <c r="C88" t="s">
+        <v>250</v>
+      </c>
+      <c r="D88" t="s">
         <v>189</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>266</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>188</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>338</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>9174</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>6</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>350</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>53</v>
       </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
         <v>381</v>
       </c>
-      <c r="L88">
+      <c r="M88">
         <v>17</v>
-      </c>
-      <c r="M88" t="s">
-        <v>250</v>
       </c>
       <c r="N88" t="s">
         <v>423</v>
@@ -6220,37 +6217,37 @@
         <v>35</v>
       </c>
       <c r="C89" t="s">
+        <v>385</v>
+      </c>
+      <c r="D89" t="s">
         <v>191</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>266</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>190</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>338</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>22198</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>8</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>352</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>51</v>
       </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
         <v>253</v>
       </c>
-      <c r="L89">
+      <c r="M89">
         <v>6</v>
-      </c>
-      <c r="M89" t="s">
-        <v>385</v>
       </c>
       <c r="N89" t="s">
         <v>423</v>
@@ -6267,31 +6264,31 @@
         <v>35</v>
       </c>
       <c r="C90" t="s">
+        <v>214</v>
+      </c>
+      <c r="D90" t="s">
         <v>193</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>277</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>192</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>345</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>17665</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>8</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>349</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>5</v>
-      </c>
-      <c r="M90" t="s">
-        <v>214</v>
       </c>
       <c r="N90" t="s">
         <v>445</v>
@@ -6308,37 +6305,37 @@
         <v>35</v>
       </c>
       <c r="C91" t="s">
+        <v>393</v>
+      </c>
+      <c r="D91" t="s">
         <v>195</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>266</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>194</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>333</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>16610</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>8</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>349</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>52</v>
       </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
         <v>382</v>
       </c>
-      <c r="L91">
+      <c r="M91">
         <v>10</v>
-      </c>
-      <c r="M91" t="s">
-        <v>393</v>
       </c>
       <c r="N91" t="s">
         <v>418</v>
@@ -6355,31 +6352,31 @@
         <v>35</v>
       </c>
       <c r="C92" t="s">
+        <v>252</v>
+      </c>
+      <c r="D92" t="s">
         <v>197</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>266</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>196</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>337</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>11416</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>7</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>349</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>5</v>
-      </c>
-      <c r="M92" t="s">
-        <v>252</v>
       </c>
       <c r="N92" t="s">
         <v>422</v>
@@ -6396,31 +6393,31 @@
         <v>35</v>
       </c>
       <c r="C93" t="s">
+        <v>252</v>
+      </c>
+      <c r="D93" t="s">
         <v>199</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>266</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>198</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>337</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>8105</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>7</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>350</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>5</v>
-      </c>
-      <c r="M93" t="s">
-        <v>252</v>
       </c>
       <c r="N93" t="s">
         <v>422</v>
@@ -6437,37 +6434,37 @@
         <v>35</v>
       </c>
       <c r="C94" t="s">
+        <v>251</v>
+      </c>
+      <c r="D94" t="s">
         <v>201</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>266</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>200</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>336</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>4412</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>4</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>352</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>51</v>
       </c>
-      <c r="K94" t="s">
+      <c r="L94" t="s">
         <v>254</v>
       </c>
-      <c r="L94">
+      <c r="M94">
         <v>6</v>
-      </c>
-      <c r="M94" t="s">
-        <v>251</v>
       </c>
       <c r="N94" t="s">
         <v>420</v>
@@ -6484,31 +6481,31 @@
         <v>59</v>
       </c>
       <c r="C95" t="s">
+        <v>386</v>
+      </c>
+      <c r="D95" t="s">
         <v>203</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>278</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>202</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>346</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>7238</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>4</v>
       </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>352</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>5</v>
-      </c>
-      <c r="M95" t="s">
-        <v>451</v>
       </c>
       <c r="N95" t="s">
         <v>446</v>

--- a/New Asser_Boundaries.xlsx
+++ b/New Asser_Boundaries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY APP\PYTHON\Feeder Location\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EBEF7B-0D34-4963-8744-416DB4ABF5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CD355F-6A88-49DC-AA87-E28DA6D920CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE138BFB-11B3-44A2-B7C5-3084C292C592}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Asser_Boundaries_Trimmed_UTF8" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Asser_Boundaries_Trimmed_UTF8!$A$1:$O$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Asser_Boundaries_Trimmed_UTF8!$A$1:$O$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="452">
   <si>
     <t>wkt</t>
   </si>
@@ -1373,12 +1373,6 @@
     <t>عبدالكريم القحطاني</t>
   </si>
   <si>
-    <t>ل شعبان</t>
-  </si>
-  <si>
-    <t>ع محمد</t>
-  </si>
-  <si>
     <t>عبد الله العلياني</t>
   </si>
   <si>
@@ -1392,13 +1386,19 @@
   </si>
   <si>
     <t>CONTRACTOR</t>
+  </si>
+  <si>
+    <t>شايع محمد</t>
+  </si>
+  <si>
+    <t>جمال شعبان</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1550,6 +1550,12 @@
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1893,8 +1899,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2273,26 +2280,26 @@
   <dimension ref="A1:O95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" customWidth="1"/>
-    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.625" customWidth="1"/>
-    <col min="5" max="5" width="38.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.375" customWidth="1"/>
-    <col min="13" max="13" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.125" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="30.625" customWidth="1"/>
+    <col min="8" max="8" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.375" customWidth="1"/>
+    <col min="15" max="15" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -2303,43 +2310,43 @@
         <v>206</v>
       </c>
       <c r="C1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>204</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>207</v>
       </c>
-      <c r="G1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>209</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>347</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>210</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>353</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>211</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>213</v>
-      </c>
-      <c r="N1" t="s">
-        <v>215</v>
-      </c>
-      <c r="O1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -2353,40 +2360,40 @@
         <v>214</v>
       </c>
       <c r="D2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F2" t="s">
+        <v>427</v>
+      </c>
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>255</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>279</v>
-      </c>
-      <c r="H2">
+      <c r="J2">
         <v>3189</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>348</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>212</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>5</v>
-      </c>
-      <c r="N2" t="s">
-        <v>394</v>
-      </c>
-      <c r="O2" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -2400,40 +2407,40 @@
         <v>383</v>
       </c>
       <c r="D3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F3" t="s">
+        <v>427</v>
+      </c>
+      <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>256</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H3">
+      <c r="J3">
         <v>8588</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>6</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>348</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>354</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>280</v>
-      </c>
-      <c r="O3" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -2447,34 +2454,34 @@
         <v>217</v>
       </c>
       <c r="D4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F4" t="s">
+        <v>432</v>
+      </c>
+      <c r="G4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>257</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="s">
-        <v>282</v>
-      </c>
-      <c r="H4">
+      <c r="J4">
         <v>5069</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>349</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>305</v>
-      </c>
-      <c r="O4" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -2488,34 +2495,34 @@
         <v>219</v>
       </c>
       <c r="D5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" t="s">
+        <v>445</v>
+      </c>
+      <c r="F5" t="s">
+        <v>427</v>
+      </c>
+      <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>258</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
-        <v>281</v>
-      </c>
-      <c r="H5">
+      <c r="J5">
         <v>5276</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>349</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>447</v>
-      </c>
-      <c r="O5" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -2529,40 +2536,40 @@
         <v>384</v>
       </c>
       <c r="D6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E6" t="s">
+        <v>395</v>
+      </c>
+      <c r="F6" t="s">
+        <v>427</v>
+      </c>
+      <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>259</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" t="s">
-        <v>283</v>
-      </c>
-      <c r="H6">
+      <c r="J6">
         <v>4674</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>348</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>51</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>218</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>395</v>
-      </c>
-      <c r="O6" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -2576,34 +2583,34 @@
         <v>428</v>
       </c>
       <c r="D7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>260</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H7">
+      <c r="J7">
         <v>4827</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>4</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>348</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>448</v>
-      </c>
-      <c r="O7" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -2617,40 +2624,40 @@
         <v>219</v>
       </c>
       <c r="D8" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" t="s">
+        <v>396</v>
+      </c>
+      <c r="F8" t="s">
+        <v>429</v>
+      </c>
+      <c r="G8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>261</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
         <v>19</v>
       </c>
-      <c r="G8" t="s">
-        <v>285</v>
-      </c>
-      <c r="H8">
+      <c r="J8">
         <v>6079</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>350</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>53</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>355</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>26</v>
-      </c>
-      <c r="N8" t="s">
-        <v>396</v>
-      </c>
-      <c r="O8" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -2664,40 +2671,40 @@
         <v>220</v>
       </c>
       <c r="D9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9" t="s">
+        <v>397</v>
+      </c>
+      <c r="F9" t="s">
+        <v>430</v>
+      </c>
+      <c r="G9" t="s">
         <v>24</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>262</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
         <v>22</v>
       </c>
-      <c r="G9" t="s">
-        <v>286</v>
-      </c>
-      <c r="H9">
+      <c r="J9">
         <v>5857</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>4</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>348</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>52</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" t="s">
         <v>356</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>11</v>
-      </c>
-      <c r="N9" t="s">
-        <v>397</v>
-      </c>
-      <c r="O9" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -2711,34 +2718,34 @@
         <v>431</v>
       </c>
       <c r="D10" t="s">
+        <v>287</v>
+      </c>
+      <c r="E10" t="s">
+        <v>287</v>
+      </c>
+      <c r="F10" t="s">
+        <v>432</v>
+      </c>
+      <c r="G10" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
         <v>263</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
         <v>25</v>
       </c>
-      <c r="G10" t="s">
-        <v>287</v>
-      </c>
-      <c r="H10">
+      <c r="J10">
         <v>1963</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>1</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>348</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>287</v>
-      </c>
-      <c r="O10" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -2752,40 +2759,40 @@
         <v>214</v>
       </c>
       <c r="D11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E11" t="s">
+        <v>398</v>
+      </c>
+      <c r="F11" t="s">
+        <v>432</v>
+      </c>
+      <c r="G11" t="s">
         <v>30</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>264</v>
       </c>
-      <c r="F11" t="s">
+      <c r="I11" t="s">
         <v>28</v>
       </c>
-      <c r="G11" t="s">
-        <v>288</v>
-      </c>
-      <c r="H11">
+      <c r="J11">
         <v>7620</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>7</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>351</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>52</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
         <v>222</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>398</v>
-      </c>
-      <c r="O11" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -2799,40 +2806,40 @@
         <v>217</v>
       </c>
       <c r="D12" t="s">
+        <v>339</v>
+      </c>
+      <c r="E12" t="s">
+        <v>425</v>
+      </c>
+      <c r="F12" t="s">
+        <v>205</v>
+      </c>
+      <c r="G12" t="s">
         <v>33</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>265</v>
       </c>
-      <c r="F12" t="s">
+      <c r="I12" t="s">
         <v>31</v>
       </c>
-      <c r="G12" t="s">
-        <v>339</v>
-      </c>
-      <c r="H12">
+      <c r="J12">
         <v>8018</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>9</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>352</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>52</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
         <v>357</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>13</v>
-      </c>
-      <c r="N12" t="s">
-        <v>425</v>
-      </c>
-      <c r="O12" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -2846,40 +2853,40 @@
         <v>385</v>
       </c>
       <c r="D13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E13" t="s">
+        <v>399</v>
+      </c>
+      <c r="F13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G13" t="s">
         <v>36</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
         <v>266</v>
       </c>
-      <c r="F13" t="s">
+      <c r="I13" t="s">
         <v>34</v>
       </c>
-      <c r="G13" t="s">
-        <v>289</v>
-      </c>
-      <c r="H13">
+      <c r="J13">
         <v>4282</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>350</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>52</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>358</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>13</v>
-      </c>
-      <c r="N13" t="s">
-        <v>399</v>
-      </c>
-      <c r="O13" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -2893,40 +2900,40 @@
         <v>219</v>
       </c>
       <c r="D14" t="s">
+        <v>290</v>
+      </c>
+      <c r="E14" t="s">
+        <v>400</v>
+      </c>
+      <c r="F14" t="s">
+        <v>427</v>
+      </c>
+      <c r="G14" t="s">
         <v>39</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
         <v>267</v>
       </c>
-      <c r="F14" t="s">
+      <c r="I14" t="s">
         <v>37</v>
       </c>
-      <c r="G14" t="s">
-        <v>290</v>
-      </c>
-      <c r="H14">
+      <c r="J14">
         <v>4119</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>3</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>352</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>51</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
         <v>224</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>400</v>
-      </c>
-      <c r="O14" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -2940,34 +2947,34 @@
         <v>387</v>
       </c>
       <c r="D15" t="s">
+        <v>291</v>
+      </c>
+      <c r="E15" t="s">
+        <v>402</v>
+      </c>
+      <c r="F15" t="s">
+        <v>432</v>
+      </c>
+      <c r="G15" t="s">
         <v>41</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H15" t="s">
         <v>264</v>
       </c>
-      <c r="F15" t="s">
+      <c r="I15" t="s">
         <v>40</v>
       </c>
-      <c r="G15" t="s">
-        <v>291</v>
-      </c>
-      <c r="H15">
+      <c r="J15">
         <v>4393</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>4</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>350</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>402</v>
-      </c>
-      <c r="O15" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -2981,40 +2988,40 @@
         <v>225</v>
       </c>
       <c r="D16" t="s">
+        <v>292</v>
+      </c>
+      <c r="E16" t="s">
+        <v>401</v>
+      </c>
+      <c r="F16" t="s">
+        <v>432</v>
+      </c>
+      <c r="G16" t="s">
         <v>43</v>
       </c>
-      <c r="E16" t="s">
+      <c r="H16" t="s">
         <v>264</v>
       </c>
-      <c r="F16" t="s">
+      <c r="I16" t="s">
         <v>42</v>
       </c>
-      <c r="G16" t="s">
-        <v>292</v>
-      </c>
-      <c r="H16">
+      <c r="J16">
         <v>12254</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>9</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>352</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>54</v>
       </c>
-      <c r="L16" t="s">
+      <c r="N16" t="s">
         <v>359</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>39</v>
-      </c>
-      <c r="N16" t="s">
-        <v>401</v>
-      </c>
-      <c r="O16" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -3028,40 +3035,40 @@
         <v>227</v>
       </c>
       <c r="D17" t="s">
+        <v>291</v>
+      </c>
+      <c r="E17" t="s">
+        <v>402</v>
+      </c>
+      <c r="F17" t="s">
+        <v>432</v>
+      </c>
+      <c r="G17" t="s">
         <v>45</v>
       </c>
-      <c r="E17" t="s">
+      <c r="H17" t="s">
         <v>264</v>
       </c>
-      <c r="F17" t="s">
+      <c r="I17" t="s">
         <v>44</v>
       </c>
-      <c r="G17" t="s">
-        <v>291</v>
-      </c>
-      <c r="H17">
+      <c r="J17">
         <v>10577</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>8</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>352</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>51</v>
       </c>
-      <c r="L17" t="s">
+      <c r="N17" t="s">
         <v>226</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>6</v>
-      </c>
-      <c r="N17" t="s">
-        <v>402</v>
-      </c>
-      <c r="O17" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -3075,40 +3082,40 @@
         <v>389</v>
       </c>
       <c r="D18" t="s">
+        <v>293</v>
+      </c>
+      <c r="E18" t="s">
+        <v>424</v>
+      </c>
+      <c r="F18" t="s">
+        <v>432</v>
+      </c>
+      <c r="G18" t="s">
         <v>47</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
         <v>268</v>
       </c>
-      <c r="F18" t="s">
+      <c r="I18" t="s">
         <v>46</v>
       </c>
-      <c r="G18" t="s">
-        <v>293</v>
-      </c>
-      <c r="H18">
+      <c r="J18">
         <v>7389</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>4</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>352</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>51</v>
       </c>
-      <c r="L18" t="s">
+      <c r="N18" t="s">
         <v>360</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>6</v>
-      </c>
-      <c r="N18" t="s">
-        <v>424</v>
-      </c>
-      <c r="O18" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -3122,34 +3129,34 @@
         <v>433</v>
       </c>
       <c r="D19" t="s">
+        <v>293</v>
+      </c>
+      <c r="E19" t="s">
+        <v>424</v>
+      </c>
+      <c r="F19" t="s">
+        <v>432</v>
+      </c>
+      <c r="G19" t="s">
         <v>49</v>
       </c>
-      <c r="E19" t="s">
+      <c r="H19" t="s">
         <v>264</v>
       </c>
-      <c r="F19" t="s">
+      <c r="I19" t="s">
         <v>48</v>
       </c>
-      <c r="G19" t="s">
-        <v>293</v>
-      </c>
-      <c r="H19">
+      <c r="J19">
         <v>12543</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>6</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>349</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>424</v>
-      </c>
-      <c r="O19" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -3163,40 +3170,40 @@
         <v>228</v>
       </c>
       <c r="D20" t="s">
+        <v>294</v>
+      </c>
+      <c r="E20" t="s">
+        <v>403</v>
+      </c>
+      <c r="F20" t="s">
+        <v>427</v>
+      </c>
+      <c r="G20" t="s">
         <v>51</v>
       </c>
-      <c r="E20" t="s">
+      <c r="H20" t="s">
         <v>267</v>
       </c>
-      <c r="F20" t="s">
+      <c r="I20" t="s">
         <v>50</v>
       </c>
-      <c r="G20" t="s">
-        <v>294</v>
-      </c>
-      <c r="H20">
+      <c r="J20">
         <v>6781</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>4</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>349</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>52</v>
       </c>
-      <c r="L20" t="s">
+      <c r="N20" t="s">
         <v>361</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>14</v>
-      </c>
-      <c r="N20" t="s">
-        <v>403</v>
-      </c>
-      <c r="O20" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -3210,34 +3217,34 @@
         <v>219</v>
       </c>
       <c r="D21" t="s">
+        <v>295</v>
+      </c>
+      <c r="E21" t="s">
+        <v>295</v>
+      </c>
+      <c r="F21" t="s">
+        <v>432</v>
+      </c>
+      <c r="G21" t="s">
         <v>53</v>
       </c>
-      <c r="E21" t="s">
+      <c r="H21" t="s">
         <v>263</v>
       </c>
-      <c r="F21" t="s">
+      <c r="I21" t="s">
         <v>52</v>
       </c>
-      <c r="G21" t="s">
-        <v>295</v>
-      </c>
-      <c r="H21">
+      <c r="J21">
         <v>3923</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>1</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>348</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>295</v>
-      </c>
-      <c r="O21" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -3251,34 +3258,34 @@
         <v>390</v>
       </c>
       <c r="D22" t="s">
+        <v>296</v>
+      </c>
+      <c r="E22" t="s">
+        <v>296</v>
+      </c>
+      <c r="F22" t="s">
+        <v>432</v>
+      </c>
+      <c r="G22" t="s">
         <v>55</v>
       </c>
-      <c r="E22" t="s">
+      <c r="H22" t="s">
         <v>263</v>
       </c>
-      <c r="F22" t="s">
+      <c r="I22" t="s">
         <v>54</v>
       </c>
-      <c r="G22" t="s">
-        <v>296</v>
-      </c>
-      <c r="H22">
+      <c r="J22">
         <v>2788</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>1</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>351</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>296</v>
-      </c>
-      <c r="O22" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -3292,34 +3299,34 @@
         <v>219</v>
       </c>
       <c r="D23" t="s">
+        <v>297</v>
+      </c>
+      <c r="E23" t="s">
+        <v>297</v>
+      </c>
+      <c r="F23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" t="s">
         <v>57</v>
       </c>
-      <c r="E23" t="s">
+      <c r="H23" t="s">
         <v>263</v>
       </c>
-      <c r="F23" t="s">
+      <c r="I23" t="s">
         <v>56</v>
       </c>
-      <c r="G23" t="s">
-        <v>297</v>
-      </c>
-      <c r="H23">
+      <c r="J23">
         <v>7348</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>3</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" t="s">
         <v>352</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>297</v>
-      </c>
-      <c r="O23" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -3333,40 +3340,40 @@
         <v>386</v>
       </c>
       <c r="D24" t="s">
+        <v>298</v>
+      </c>
+      <c r="E24" t="s">
+        <v>404</v>
+      </c>
+      <c r="F24" t="s">
+        <v>429</v>
+      </c>
+      <c r="G24" t="s">
         <v>60</v>
       </c>
-      <c r="E24" t="s">
+      <c r="H24" t="s">
         <v>269</v>
       </c>
-      <c r="F24" t="s">
+      <c r="I24" t="s">
         <v>58</v>
       </c>
-      <c r="G24" t="s">
-        <v>298</v>
-      </c>
-      <c r="H24">
+      <c r="J24">
         <v>7238</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>5</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L24" t="s">
         <v>352</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>51</v>
       </c>
-      <c r="L24" t="s">
+      <c r="N24" t="s">
         <v>229</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>9</v>
-      </c>
-      <c r="N24" t="s">
-        <v>404</v>
-      </c>
-      <c r="O24" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -3380,40 +3387,40 @@
         <v>217</v>
       </c>
       <c r="D25" t="s">
+        <v>299</v>
+      </c>
+      <c r="E25" t="s">
+        <v>405</v>
+      </c>
+      <c r="F25" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" t="s">
         <v>62</v>
       </c>
-      <c r="E25" t="s">
+      <c r="H25" t="s">
         <v>270</v>
       </c>
-      <c r="F25" t="s">
+      <c r="I25" t="s">
         <v>61</v>
       </c>
-      <c r="G25" t="s">
-        <v>299</v>
-      </c>
-      <c r="H25">
+      <c r="J25">
         <v>10374</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>7</v>
       </c>
-      <c r="J25" t="s">
+      <c r="L25" t="s">
         <v>352</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>51</v>
       </c>
-      <c r="L25" t="s">
+      <c r="N25" t="s">
         <v>230</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>405</v>
-      </c>
-      <c r="O25" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -3427,40 +3434,40 @@
         <v>387</v>
       </c>
       <c r="D26" t="s">
+        <v>300</v>
+      </c>
+      <c r="E26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" t="s">
         <v>64</v>
       </c>
-      <c r="E26" t="s">
+      <c r="H26" t="s">
         <v>270</v>
       </c>
-      <c r="F26" t="s">
+      <c r="I26" t="s">
         <v>63</v>
       </c>
-      <c r="G26" t="s">
-        <v>300</v>
-      </c>
-      <c r="H26">
+      <c r="J26">
         <v>14324</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>4</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" t="s">
         <v>351</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>52</v>
       </c>
-      <c r="L26" t="s">
+      <c r="N26" t="s">
         <v>362</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <v>16</v>
-      </c>
-      <c r="N26" t="s">
-        <v>406</v>
-      </c>
-      <c r="O26" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -3474,40 +3481,40 @@
         <v>385</v>
       </c>
       <c r="D27" t="s">
+        <v>301</v>
+      </c>
+      <c r="E27" t="s">
+        <v>407</v>
+      </c>
+      <c r="F27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G27" t="s">
         <v>66</v>
       </c>
-      <c r="E27" t="s">
+      <c r="H27" t="s">
         <v>271</v>
       </c>
-      <c r="F27" t="s">
+      <c r="I27" t="s">
         <v>65</v>
       </c>
-      <c r="G27" t="s">
-        <v>301</v>
-      </c>
-      <c r="H27">
+      <c r="J27">
         <v>6782</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>7</v>
       </c>
-      <c r="J27" t="s">
+      <c r="L27" t="s">
         <v>349</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>52</v>
       </c>
-      <c r="L27" t="s">
+      <c r="N27" t="s">
         <v>363</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>11</v>
-      </c>
-      <c r="N27" t="s">
-        <v>407</v>
-      </c>
-      <c r="O27" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -3521,40 +3528,40 @@
         <v>383</v>
       </c>
       <c r="D28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E28" t="s">
+        <v>408</v>
+      </c>
+      <c r="F28" t="s">
+        <v>430</v>
+      </c>
+      <c r="G28" t="s">
         <v>68</v>
       </c>
-      <c r="E28" t="s">
+      <c r="H28" t="s">
         <v>271</v>
       </c>
-      <c r="F28" t="s">
+      <c r="I28" t="s">
         <v>67</v>
       </c>
-      <c r="G28" t="s">
-        <v>302</v>
-      </c>
-      <c r="H28">
+      <c r="J28">
         <v>9826</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>4</v>
       </c>
-      <c r="J28" t="s">
+      <c r="L28" t="s">
         <v>349</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>51</v>
       </c>
-      <c r="L28" t="s">
+      <c r="N28" t="s">
         <v>231</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>8</v>
-      </c>
-      <c r="N28" t="s">
-        <v>408</v>
-      </c>
-      <c r="O28" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -3568,40 +3575,40 @@
         <v>388</v>
       </c>
       <c r="D29" t="s">
+        <v>302</v>
+      </c>
+      <c r="E29" t="s">
+        <v>408</v>
+      </c>
+      <c r="F29" t="s">
+        <v>430</v>
+      </c>
+      <c r="G29" t="s">
         <v>70</v>
       </c>
-      <c r="E29" t="s">
+      <c r="H29" t="s">
         <v>271</v>
       </c>
-      <c r="F29" t="s">
+      <c r="I29" t="s">
         <v>69</v>
       </c>
-      <c r="G29" t="s">
-        <v>302</v>
-      </c>
-      <c r="H29">
+      <c r="J29">
         <v>10957</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>3</v>
       </c>
-      <c r="J29" t="s">
+      <c r="L29" t="s">
         <v>349</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>51</v>
       </c>
-      <c r="L29" t="s">
+      <c r="N29" t="s">
         <v>232</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>5</v>
-      </c>
-      <c r="N29" t="s">
-        <v>408</v>
-      </c>
-      <c r="O29" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -3615,34 +3622,34 @@
         <v>385</v>
       </c>
       <c r="D30" t="s">
+        <v>303</v>
+      </c>
+      <c r="E30" t="s">
+        <v>437</v>
+      </c>
+      <c r="F30" t="s">
+        <v>427</v>
+      </c>
+      <c r="G30" t="s">
         <v>72</v>
       </c>
-      <c r="E30" t="s">
+      <c r="H30" t="s">
         <v>261</v>
       </c>
-      <c r="F30" t="s">
+      <c r="I30" t="s">
         <v>71</v>
       </c>
-      <c r="G30" t="s">
-        <v>303</v>
-      </c>
-      <c r="H30">
+      <c r="J30">
         <v>7940</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>3</v>
       </c>
-      <c r="J30" t="s">
+      <c r="L30" t="s">
         <v>351</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>5</v>
-      </c>
-      <c r="N30" t="s">
-        <v>437</v>
-      </c>
-      <c r="O30" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -3656,34 +3663,34 @@
         <v>228</v>
       </c>
       <c r="D31" t="s">
+        <v>304</v>
+      </c>
+      <c r="E31" t="s">
+        <v>438</v>
+      </c>
+      <c r="F31" t="s">
+        <v>429</v>
+      </c>
+      <c r="G31" t="s">
         <v>74</v>
       </c>
-      <c r="E31" t="s">
+      <c r="H31" t="s">
         <v>261</v>
       </c>
-      <c r="F31" t="s">
+      <c r="I31" t="s">
         <v>73</v>
       </c>
-      <c r="G31" t="s">
-        <v>304</v>
-      </c>
-      <c r="H31">
+      <c r="J31">
         <v>5913</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>1</v>
       </c>
-      <c r="J31" t="s">
+      <c r="L31" t="s">
         <v>350</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>5</v>
-      </c>
-      <c r="N31" t="s">
-        <v>438</v>
-      </c>
-      <c r="O31" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -3697,34 +3704,34 @@
         <v>228</v>
       </c>
       <c r="D32" t="s">
+        <v>340</v>
+      </c>
+      <c r="E32" t="s">
+        <v>447</v>
+      </c>
+      <c r="F32" t="s">
+        <v>429</v>
+      </c>
+      <c r="G32" t="s">
         <v>76</v>
       </c>
-      <c r="E32" t="s">
+      <c r="H32" t="s">
         <v>272</v>
       </c>
-      <c r="F32" t="s">
+      <c r="I32" t="s">
         <v>75</v>
       </c>
-      <c r="G32" t="s">
-        <v>340</v>
-      </c>
-      <c r="H32">
+      <c r="J32">
         <v>5332</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>4</v>
       </c>
-      <c r="J32" t="s">
+      <c r="L32" t="s">
         <v>348</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>5</v>
-      </c>
-      <c r="N32" t="s">
-        <v>449</v>
-      </c>
-      <c r="O32" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -3738,34 +3745,34 @@
         <v>237</v>
       </c>
       <c r="D33" t="s">
+        <v>341</v>
+      </c>
+      <c r="E33" t="s">
+        <v>341</v>
+      </c>
+      <c r="F33" t="s">
+        <v>432</v>
+      </c>
+      <c r="G33" t="s">
         <v>78</v>
       </c>
-      <c r="E33" t="s">
+      <c r="H33" t="s">
         <v>273</v>
       </c>
-      <c r="F33" t="s">
+      <c r="I33" t="s">
         <v>77</v>
       </c>
-      <c r="G33" t="s">
-        <v>341</v>
-      </c>
-      <c r="H33">
+      <c r="J33">
         <v>4771</v>
       </c>
-      <c r="I33">
+      <c r="K33">
         <v>7</v>
       </c>
-      <c r="J33" t="s">
+      <c r="L33" t="s">
         <v>350</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <v>5</v>
-      </c>
-      <c r="N33" t="s">
-        <v>341</v>
-      </c>
-      <c r="O33" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -3779,34 +3786,34 @@
         <v>237</v>
       </c>
       <c r="D34" t="s">
+        <v>341</v>
+      </c>
+      <c r="E34" t="s">
+        <v>341</v>
+      </c>
+      <c r="F34" t="s">
+        <v>432</v>
+      </c>
+      <c r="G34" t="s">
         <v>80</v>
       </c>
-      <c r="E34" t="s">
+      <c r="H34" t="s">
         <v>273</v>
       </c>
-      <c r="F34" t="s">
+      <c r="I34" t="s">
         <v>79</v>
       </c>
-      <c r="G34" t="s">
-        <v>341</v>
-      </c>
-      <c r="H34">
+      <c r="J34">
         <v>6266</v>
       </c>
-      <c r="I34">
+      <c r="K34">
         <v>3</v>
       </c>
-      <c r="J34" t="s">
+      <c r="L34" t="s">
         <v>349</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>5</v>
-      </c>
-      <c r="N34" t="s">
-        <v>341</v>
-      </c>
-      <c r="O34" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -3820,40 +3827,40 @@
         <v>217</v>
       </c>
       <c r="D35" t="s">
+        <v>305</v>
+      </c>
+      <c r="E35" t="s">
+        <v>305</v>
+      </c>
+      <c r="F35" t="s">
+        <v>432</v>
+      </c>
+      <c r="G35" t="s">
         <v>82</v>
       </c>
-      <c r="E35" t="s">
+      <c r="H35" t="s">
         <v>257</v>
       </c>
-      <c r="F35" t="s">
+      <c r="I35" t="s">
         <v>81</v>
       </c>
-      <c r="G35" t="s">
-        <v>305</v>
-      </c>
-      <c r="H35">
+      <c r="J35">
         <v>11011</v>
       </c>
-      <c r="I35">
+      <c r="K35">
         <v>6</v>
       </c>
-      <c r="J35" t="s">
+      <c r="L35" t="s">
         <v>348</v>
       </c>
-      <c r="K35">
+      <c r="M35">
         <v>51</v>
       </c>
-      <c r="L35" t="s">
+      <c r="N35" t="s">
         <v>233</v>
       </c>
-      <c r="M35">
+      <c r="O35">
         <v>13</v>
-      </c>
-      <c r="N35" t="s">
-        <v>305</v>
-      </c>
-      <c r="O35" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -3867,34 +3874,34 @@
         <v>384</v>
       </c>
       <c r="D36" t="s">
+        <v>306</v>
+      </c>
+      <c r="E36" t="s">
+        <v>306</v>
+      </c>
+      <c r="F36" t="s">
+        <v>427</v>
+      </c>
+      <c r="G36" t="s">
         <v>84</v>
       </c>
-      <c r="E36" t="s">
+      <c r="H36" t="s">
         <v>259</v>
       </c>
-      <c r="F36" t="s">
+      <c r="I36" t="s">
         <v>83</v>
       </c>
-      <c r="G36" t="s">
-        <v>306</v>
-      </c>
-      <c r="H36">
+      <c r="J36">
         <v>5907</v>
       </c>
-      <c r="I36">
+      <c r="K36">
         <v>4</v>
       </c>
-      <c r="J36" t="s">
+      <c r="L36" t="s">
         <v>348</v>
       </c>
-      <c r="K36">
+      <c r="M36">
         <v>5</v>
-      </c>
-      <c r="N36" t="s">
-        <v>306</v>
-      </c>
-      <c r="O36" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -3908,34 +3915,34 @@
         <v>221</v>
       </c>
       <c r="D37" t="s">
+        <v>342</v>
+      </c>
+      <c r="E37" t="s">
+        <v>342</v>
+      </c>
+      <c r="F37" t="s">
+        <v>427</v>
+      </c>
+      <c r="G37" t="s">
         <v>86</v>
       </c>
-      <c r="E37" t="s">
+      <c r="H37" t="s">
         <v>260</v>
       </c>
-      <c r="F37" t="s">
+      <c r="I37" t="s">
         <v>85</v>
       </c>
-      <c r="G37" t="s">
-        <v>342</v>
-      </c>
-      <c r="H37">
+      <c r="J37">
         <v>3213</v>
       </c>
-      <c r="I37">
+      <c r="K37">
         <v>3</v>
       </c>
-      <c r="J37" t="s">
+      <c r="L37" t="s">
         <v>349</v>
       </c>
-      <c r="K37">
+      <c r="M37">
         <v>5</v>
-      </c>
-      <c r="N37" t="s">
-        <v>342</v>
-      </c>
-      <c r="O37" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -3949,40 +3956,40 @@
         <v>428</v>
       </c>
       <c r="D38" t="s">
+        <v>343</v>
+      </c>
+      <c r="E38" t="s">
+        <v>343</v>
+      </c>
+      <c r="F38" t="s">
+        <v>432</v>
+      </c>
+      <c r="G38" t="s">
         <v>88</v>
       </c>
-      <c r="E38" t="s">
+      <c r="H38" t="s">
         <v>260</v>
       </c>
-      <c r="F38" t="s">
+      <c r="I38" t="s">
         <v>87</v>
       </c>
-      <c r="G38" t="s">
-        <v>343</v>
-      </c>
-      <c r="H38">
+      <c r="J38">
         <v>4147</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <v>7</v>
       </c>
-      <c r="J38" t="s">
+      <c r="L38" t="s">
         <v>349</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <v>51</v>
       </c>
-      <c r="L38" t="s">
+      <c r="N38" t="s">
         <v>364</v>
       </c>
-      <c r="M38">
+      <c r="O38">
         <v>5</v>
-      </c>
-      <c r="N38" t="s">
-        <v>343</v>
-      </c>
-      <c r="O38" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
@@ -3996,34 +4003,34 @@
         <v>219</v>
       </c>
       <c r="D39" t="s">
+        <v>307</v>
+      </c>
+      <c r="E39" t="s">
+        <v>307</v>
+      </c>
+      <c r="F39" t="s">
+        <v>427</v>
+      </c>
+      <c r="G39" t="s">
         <v>90</v>
       </c>
-      <c r="E39" t="s">
+      <c r="H39" t="s">
         <v>255</v>
       </c>
-      <c r="F39" t="s">
+      <c r="I39" t="s">
         <v>89</v>
       </c>
-      <c r="G39" t="s">
-        <v>307</v>
-      </c>
-      <c r="H39">
+      <c r="J39">
         <v>2643</v>
       </c>
-      <c r="I39">
+      <c r="K39">
         <v>2</v>
       </c>
-      <c r="J39" t="s">
+      <c r="L39" t="s">
         <v>349</v>
       </c>
-      <c r="K39">
+      <c r="M39">
         <v>5</v>
-      </c>
-      <c r="N39" t="s">
-        <v>307</v>
-      </c>
-      <c r="O39" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
@@ -4037,34 +4044,34 @@
         <v>219</v>
       </c>
       <c r="D40" t="s">
+        <v>308</v>
+      </c>
+      <c r="E40" t="s">
+        <v>308</v>
+      </c>
+      <c r="F40" t="s">
+        <v>430</v>
+      </c>
+      <c r="G40" t="s">
         <v>92</v>
       </c>
-      <c r="E40" t="s">
+      <c r="H40" t="s">
         <v>255</v>
       </c>
-      <c r="F40" t="s">
+      <c r="I40" t="s">
         <v>91</v>
       </c>
-      <c r="G40" t="s">
-        <v>308</v>
-      </c>
-      <c r="H40">
+      <c r="J40">
         <v>2717</v>
       </c>
-      <c r="I40">
+      <c r="K40">
         <v>2</v>
       </c>
-      <c r="J40" t="s">
+      <c r="L40" t="s">
         <v>349</v>
       </c>
-      <c r="K40">
+      <c r="M40">
         <v>5</v>
-      </c>
-      <c r="N40" t="s">
-        <v>308</v>
-      </c>
-      <c r="O40" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
@@ -4078,34 +4085,34 @@
         <v>434</v>
       </c>
       <c r="D41" t="s">
+        <v>309</v>
+      </c>
+      <c r="E41" t="s">
+        <v>309</v>
+      </c>
+      <c r="F41" t="s">
+        <v>430</v>
+      </c>
+      <c r="G41" t="s">
         <v>94</v>
       </c>
-      <c r="E41" t="s">
+      <c r="H41" t="s">
         <v>255</v>
       </c>
-      <c r="F41" t="s">
+      <c r="I41" t="s">
         <v>93</v>
       </c>
-      <c r="G41" t="s">
-        <v>309</v>
-      </c>
-      <c r="H41">
+      <c r="J41">
         <v>4397</v>
       </c>
-      <c r="I41">
+      <c r="K41">
         <v>2</v>
       </c>
-      <c r="J41" t="s">
+      <c r="L41" t="s">
         <v>350</v>
       </c>
-      <c r="K41">
+      <c r="M41">
         <v>5</v>
-      </c>
-      <c r="N41" t="s">
-        <v>309</v>
-      </c>
-      <c r="O41" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -4119,40 +4126,40 @@
         <v>385</v>
       </c>
       <c r="D42" t="s">
+        <v>310</v>
+      </c>
+      <c r="E42" t="s">
+        <v>409</v>
+      </c>
+      <c r="F42" t="s">
+        <v>427</v>
+      </c>
+      <c r="G42" t="s">
         <v>96</v>
       </c>
-      <c r="E42" t="s">
+      <c r="H42" t="s">
         <v>267</v>
       </c>
-      <c r="F42" t="s">
+      <c r="I42" t="s">
         <v>95</v>
       </c>
-      <c r="G42" t="s">
-        <v>310</v>
-      </c>
-      <c r="H42">
+      <c r="J42">
         <v>5678</v>
       </c>
-      <c r="I42">
+      <c r="K42">
         <v>3</v>
       </c>
-      <c r="J42" t="s">
+      <c r="L42" t="s">
         <v>348</v>
       </c>
-      <c r="K42">
+      <c r="M42">
         <v>51</v>
       </c>
-      <c r="L42" t="s">
+      <c r="N42" t="s">
         <v>234</v>
       </c>
-      <c r="M42">
+      <c r="O42">
         <v>8</v>
-      </c>
-      <c r="N42" t="s">
-        <v>409</v>
-      </c>
-      <c r="O42" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -4166,34 +4173,34 @@
         <v>219</v>
       </c>
       <c r="D43" t="s">
+        <v>311</v>
+      </c>
+      <c r="E43" t="s">
+        <v>311</v>
+      </c>
+      <c r="F43" t="s">
+        <v>427</v>
+      </c>
+      <c r="G43" t="s">
         <v>98</v>
       </c>
-      <c r="E43" t="s">
+      <c r="H43" t="s">
         <v>256</v>
       </c>
-      <c r="F43" t="s">
+      <c r="I43" t="s">
         <v>97</v>
       </c>
-      <c r="G43" t="s">
-        <v>311</v>
-      </c>
-      <c r="H43">
+      <c r="J43">
         <v>4511</v>
       </c>
-      <c r="I43">
+      <c r="K43">
         <v>2</v>
       </c>
-      <c r="J43" t="s">
+      <c r="L43" t="s">
         <v>351</v>
       </c>
-      <c r="K43">
+      <c r="M43">
         <v>5</v>
-      </c>
-      <c r="N43" t="s">
-        <v>311</v>
-      </c>
-      <c r="O43" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
@@ -4207,40 +4214,40 @@
         <v>219</v>
       </c>
       <c r="D44" t="s">
+        <v>312</v>
+      </c>
+      <c r="E44" t="s">
+        <v>312</v>
+      </c>
+      <c r="F44" t="s">
+        <v>430</v>
+      </c>
+      <c r="G44" t="s">
         <v>100</v>
       </c>
-      <c r="E44" t="s">
+      <c r="H44" t="s">
         <v>256</v>
       </c>
-      <c r="F44" t="s">
+      <c r="I44" t="s">
         <v>99</v>
       </c>
-      <c r="G44" t="s">
-        <v>312</v>
-      </c>
-      <c r="H44">
+      <c r="J44">
         <v>11121</v>
       </c>
-      <c r="I44">
+      <c r="K44">
         <v>3</v>
       </c>
-      <c r="J44" t="s">
+      <c r="L44" t="s">
         <v>350</v>
       </c>
-      <c r="K44">
+      <c r="M44">
         <v>52</v>
       </c>
-      <c r="L44" t="s">
+      <c r="N44" t="s">
         <v>365</v>
       </c>
-      <c r="M44">
+      <c r="O44">
         <v>10</v>
-      </c>
-      <c r="N44" t="s">
-        <v>312</v>
-      </c>
-      <c r="O44" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -4254,34 +4261,34 @@
         <v>433</v>
       </c>
       <c r="D45" t="s">
+        <v>313</v>
+      </c>
+      <c r="E45" t="s">
+        <v>313</v>
+      </c>
+      <c r="F45" t="s">
+        <v>427</v>
+      </c>
+      <c r="G45" t="s">
         <v>102</v>
       </c>
-      <c r="E45" t="s">
+      <c r="H45" t="s">
         <v>256</v>
       </c>
-      <c r="F45" t="s">
+      <c r="I45" t="s">
         <v>101</v>
       </c>
-      <c r="G45" t="s">
-        <v>313</v>
-      </c>
-      <c r="H45">
+      <c r="J45">
         <v>4749</v>
       </c>
-      <c r="I45">
+      <c r="K45">
         <v>1</v>
       </c>
-      <c r="J45" t="s">
+      <c r="L45" t="s">
         <v>350</v>
       </c>
-      <c r="K45">
+      <c r="M45">
         <v>5</v>
-      </c>
-      <c r="N45" t="s">
-        <v>313</v>
-      </c>
-      <c r="O45" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -4295,34 +4302,34 @@
         <v>435</v>
       </c>
       <c r="D46" t="s">
+        <v>314</v>
+      </c>
+      <c r="E46" t="s">
+        <v>314</v>
+      </c>
+      <c r="F46" t="s">
+        <v>430</v>
+      </c>
+      <c r="G46" t="s">
         <v>104</v>
       </c>
-      <c r="E46" t="s">
+      <c r="H46" t="s">
         <v>256</v>
       </c>
-      <c r="F46" t="s">
+      <c r="I46" t="s">
         <v>103</v>
       </c>
-      <c r="G46" t="s">
-        <v>314</v>
-      </c>
-      <c r="H46">
+      <c r="J46">
         <v>5192</v>
       </c>
-      <c r="I46">
+      <c r="K46">
         <v>1</v>
       </c>
-      <c r="J46" t="s">
+      <c r="L46" t="s">
         <v>350</v>
       </c>
-      <c r="K46">
+      <c r="M46">
         <v>5</v>
-      </c>
-      <c r="N46" t="s">
-        <v>314</v>
-      </c>
-      <c r="O46" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
@@ -4336,34 +4343,34 @@
         <v>436</v>
       </c>
       <c r="D47" t="s">
+        <v>315</v>
+      </c>
+      <c r="E47" t="s">
+        <v>315</v>
+      </c>
+      <c r="F47" t="s">
+        <v>430</v>
+      </c>
+      <c r="G47" t="s">
         <v>106</v>
       </c>
-      <c r="E47" t="s">
+      <c r="H47" t="s">
         <v>256</v>
       </c>
-      <c r="F47" t="s">
+      <c r="I47" t="s">
         <v>105</v>
       </c>
-      <c r="G47" t="s">
-        <v>315</v>
-      </c>
-      <c r="H47">
+      <c r="J47">
         <v>6792</v>
       </c>
-      <c r="I47">
+      <c r="K47">
         <v>3</v>
       </c>
-      <c r="J47" t="s">
+      <c r="L47" t="s">
         <v>348</v>
       </c>
-      <c r="K47">
+      <c r="M47">
         <v>5</v>
-      </c>
-      <c r="N47" t="s">
-        <v>315</v>
-      </c>
-      <c r="O47" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -4377,34 +4384,34 @@
         <v>219</v>
       </c>
       <c r="D48" t="s">
+        <v>316</v>
+      </c>
+      <c r="E48" t="s">
+        <v>316</v>
+      </c>
+      <c r="F48" t="s">
+        <v>205</v>
+      </c>
+      <c r="G48" t="s">
         <v>108</v>
       </c>
-      <c r="E48" t="s">
+      <c r="H48" t="s">
         <v>263</v>
       </c>
-      <c r="F48" t="s">
+      <c r="I48" t="s">
         <v>107</v>
       </c>
-      <c r="G48" t="s">
-        <v>316</v>
-      </c>
-      <c r="H48">
+      <c r="J48">
         <v>6596</v>
       </c>
-      <c r="I48">
+      <c r="K48">
         <v>1</v>
       </c>
-      <c r="J48" t="s">
+      <c r="L48" t="s">
         <v>352</v>
       </c>
-      <c r="K48">
+      <c r="M48">
         <v>5</v>
-      </c>
-      <c r="N48" t="s">
-        <v>316</v>
-      </c>
-      <c r="O48" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
@@ -4418,34 +4425,34 @@
         <v>386</v>
       </c>
       <c r="D49" t="s">
+        <v>317</v>
+      </c>
+      <c r="E49" t="s">
+        <v>317</v>
+      </c>
+      <c r="F49" t="s">
+        <v>205</v>
+      </c>
+      <c r="G49" t="s">
         <v>110</v>
       </c>
-      <c r="E49" t="s">
+      <c r="H49" t="s">
         <v>263</v>
       </c>
-      <c r="F49" t="s">
+      <c r="I49" t="s">
         <v>109</v>
       </c>
-      <c r="G49" t="s">
-        <v>317</v>
-      </c>
-      <c r="H49">
+      <c r="J49">
         <v>3485</v>
       </c>
-      <c r="I49">
+      <c r="K49">
         <v>2</v>
       </c>
-      <c r="J49" t="s">
+      <c r="L49" t="s">
         <v>351</v>
       </c>
-      <c r="K49">
+      <c r="M49">
         <v>5</v>
-      </c>
-      <c r="N49" t="s">
-        <v>317</v>
-      </c>
-      <c r="O49" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -4459,34 +4466,34 @@
         <v>220</v>
       </c>
       <c r="D50" t="s">
+        <v>318</v>
+      </c>
+      <c r="E50" t="s">
+        <v>343</v>
+      </c>
+      <c r="F50" t="s">
+        <v>427</v>
+      </c>
+      <c r="G50" t="s">
         <v>113</v>
       </c>
-      <c r="E50" t="s">
+      <c r="H50" t="s">
         <v>274</v>
       </c>
-      <c r="F50" t="s">
+      <c r="I50" t="s">
         <v>111</v>
       </c>
-      <c r="G50" t="s">
-        <v>318</v>
-      </c>
-      <c r="H50">
+      <c r="J50">
         <v>9610</v>
       </c>
-      <c r="I50">
+      <c r="K50">
         <v>7</v>
       </c>
-      <c r="J50" t="s">
+      <c r="L50" t="s">
         <v>348</v>
       </c>
-      <c r="K50">
+      <c r="M50">
         <v>5</v>
-      </c>
-      <c r="N50" t="s">
-        <v>343</v>
-      </c>
-      <c r="O50" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
@@ -4500,34 +4507,34 @@
         <v>385</v>
       </c>
       <c r="D51" t="s">
+        <v>319</v>
+      </c>
+      <c r="E51" t="s">
+        <v>439</v>
+      </c>
+      <c r="F51" t="s">
+        <v>432</v>
+      </c>
+      <c r="G51" t="s">
         <v>115</v>
       </c>
-      <c r="E51" t="s">
+      <c r="H51" t="s">
         <v>274</v>
       </c>
-      <c r="F51" t="s">
+      <c r="I51" t="s">
         <v>114</v>
       </c>
-      <c r="G51" t="s">
-        <v>319</v>
-      </c>
-      <c r="H51">
+      <c r="J51">
         <v>18808</v>
       </c>
-      <c r="I51">
+      <c r="K51">
         <v>8</v>
       </c>
-      <c r="J51" t="s">
+      <c r="L51" t="s">
         <v>352</v>
       </c>
-      <c r="K51">
+      <c r="M51">
         <v>5</v>
-      </c>
-      <c r="N51" t="s">
-        <v>439</v>
-      </c>
-      <c r="O51" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
@@ -4541,40 +4548,40 @@
         <v>389</v>
       </c>
       <c r="D52" t="s">
+        <v>320</v>
+      </c>
+      <c r="E52" t="s">
+        <v>410</v>
+      </c>
+      <c r="F52" t="s">
+        <v>432</v>
+      </c>
+      <c r="G52" t="s">
         <v>117</v>
       </c>
-      <c r="E52" t="s">
+      <c r="H52" t="s">
         <v>274</v>
       </c>
-      <c r="F52" t="s">
+      <c r="I52" t="s">
         <v>116</v>
       </c>
-      <c r="G52" t="s">
-        <v>320</v>
-      </c>
-      <c r="H52">
+      <c r="J52">
         <v>9675</v>
       </c>
-      <c r="I52">
+      <c r="K52">
         <v>5</v>
       </c>
-      <c r="J52" t="s">
+      <c r="L52" t="s">
         <v>348</v>
       </c>
-      <c r="K52">
+      <c r="M52">
         <v>52</v>
       </c>
-      <c r="L52" t="s">
+      <c r="N52" t="s">
         <v>366</v>
       </c>
-      <c r="M52">
+      <c r="O52">
         <v>17</v>
-      </c>
-      <c r="N52" t="s">
-        <v>410</v>
-      </c>
-      <c r="O52" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
@@ -4588,40 +4595,40 @@
         <v>390</v>
       </c>
       <c r="D53" t="s">
+        <v>318</v>
+      </c>
+      <c r="E53" t="s">
+        <v>343</v>
+      </c>
+      <c r="F53" t="s">
+        <v>427</v>
+      </c>
+      <c r="G53" t="s">
         <v>119</v>
       </c>
-      <c r="E53" t="s">
+      <c r="H53" t="s">
         <v>274</v>
       </c>
-      <c r="F53" t="s">
+      <c r="I53" t="s">
         <v>118</v>
       </c>
-      <c r="G53" t="s">
-        <v>318</v>
-      </c>
-      <c r="H53">
+      <c r="J53">
         <v>3626</v>
       </c>
-      <c r="I53">
+      <c r="K53">
         <v>2</v>
       </c>
-      <c r="J53" t="s">
+      <c r="L53" t="s">
         <v>348</v>
       </c>
-      <c r="K53">
+      <c r="M53">
         <v>51</v>
       </c>
-      <c r="L53" t="s">
+      <c r="N53" t="s">
         <v>235</v>
       </c>
-      <c r="M53">
+      <c r="O53">
         <v>8</v>
-      </c>
-      <c r="N53" t="s">
-        <v>343</v>
-      </c>
-      <c r="O53" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -4635,34 +4642,34 @@
         <v>225</v>
       </c>
       <c r="D54" t="s">
+        <v>344</v>
+      </c>
+      <c r="E54" t="s">
+        <v>448</v>
+      </c>
+      <c r="F54" t="s">
+        <v>427</v>
+      </c>
+      <c r="G54" t="s">
         <v>121</v>
       </c>
-      <c r="E54" t="s">
+      <c r="H54" t="s">
         <v>275</v>
       </c>
-      <c r="F54" t="s">
+      <c r="I54" t="s">
         <v>120</v>
       </c>
-      <c r="G54" t="s">
-        <v>344</v>
-      </c>
-      <c r="H54">
+      <c r="J54">
         <v>3633</v>
       </c>
-      <c r="I54">
+      <c r="K54">
         <v>3</v>
       </c>
-      <c r="J54" t="s">
+      <c r="L54" t="s">
         <v>349</v>
       </c>
-      <c r="K54">
+      <c r="M54">
         <v>5</v>
-      </c>
-      <c r="N54" t="s">
-        <v>450</v>
-      </c>
-      <c r="O54" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
@@ -4676,40 +4683,40 @@
         <v>214</v>
       </c>
       <c r="D55" t="s">
+        <v>321</v>
+      </c>
+      <c r="E55" t="s">
+        <v>426</v>
+      </c>
+      <c r="F55" t="s">
+        <v>427</v>
+      </c>
+      <c r="G55" t="s">
         <v>123</v>
       </c>
-      <c r="E55" t="s">
+      <c r="H55" t="s">
         <v>276</v>
       </c>
-      <c r="F55" t="s">
+      <c r="I55" t="s">
         <v>122</v>
       </c>
-      <c r="G55" t="s">
-        <v>321</v>
-      </c>
-      <c r="H55">
+      <c r="J55">
         <v>3174</v>
       </c>
-      <c r="I55">
+      <c r="K55">
         <v>2</v>
       </c>
-      <c r="J55" t="s">
+      <c r="L55" t="s">
         <v>349</v>
       </c>
-      <c r="K55">
+      <c r="M55">
         <v>51</v>
       </c>
-      <c r="L55" t="s">
+      <c r="N55" t="s">
         <v>367</v>
       </c>
-      <c r="M55">
+      <c r="O55">
         <v>11</v>
-      </c>
-      <c r="N55" t="s">
-        <v>426</v>
-      </c>
-      <c r="O55" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -4723,34 +4730,34 @@
         <v>217</v>
       </c>
       <c r="D56" t="s">
+        <v>321</v>
+      </c>
+      <c r="E56" t="s">
+        <v>440</v>
+      </c>
+      <c r="F56" t="s">
+        <v>427</v>
+      </c>
+      <c r="G56" t="s">
         <v>125</v>
       </c>
-      <c r="E56" t="s">
+      <c r="H56" t="s">
         <v>274</v>
       </c>
-      <c r="F56" t="s">
+      <c r="I56" t="s">
         <v>124</v>
       </c>
-      <c r="G56" t="s">
-        <v>321</v>
-      </c>
-      <c r="H56">
+      <c r="J56">
         <v>4859</v>
       </c>
-      <c r="I56">
+      <c r="K56">
         <v>3</v>
       </c>
-      <c r="J56" t="s">
+      <c r="L56" t="s">
         <v>348</v>
       </c>
-      <c r="K56">
+      <c r="M56">
         <v>5</v>
-      </c>
-      <c r="N56" t="s">
-        <v>440</v>
-      </c>
-      <c r="O56" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
@@ -4764,40 +4771,40 @@
         <v>237</v>
       </c>
       <c r="D57" t="s">
+        <v>320</v>
+      </c>
+      <c r="E57" t="s">
+        <v>410</v>
+      </c>
+      <c r="F57" t="s">
+        <v>432</v>
+      </c>
+      <c r="G57" t="s">
         <v>127</v>
       </c>
-      <c r="E57" t="s">
+      <c r="H57" t="s">
         <v>274</v>
       </c>
-      <c r="F57" t="s">
+      <c r="I57" t="s">
         <v>126</v>
       </c>
-      <c r="G57" t="s">
-        <v>320</v>
-      </c>
-      <c r="H57">
+      <c r="J57">
         <v>7832</v>
       </c>
-      <c r="I57">
+      <c r="K57">
         <v>6</v>
       </c>
-      <c r="J57" t="s">
+      <c r="L57" t="s">
         <v>349</v>
       </c>
-      <c r="K57">
+      <c r="M57">
         <v>51</v>
       </c>
-      <c r="L57" t="s">
+      <c r="N57" t="s">
         <v>236</v>
       </c>
-      <c r="M57">
+      <c r="O57">
         <v>5</v>
-      </c>
-      <c r="N57" t="s">
-        <v>410</v>
-      </c>
-      <c r="O57" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -4811,40 +4818,40 @@
         <v>214</v>
       </c>
       <c r="D58" t="s">
+        <v>322</v>
+      </c>
+      <c r="E58" t="s">
+        <v>411</v>
+      </c>
+      <c r="F58" t="s">
+        <v>432</v>
+      </c>
+      <c r="G58" t="s">
         <v>129</v>
       </c>
-      <c r="E58" t="s">
+      <c r="H58" t="s">
         <v>274</v>
       </c>
-      <c r="F58" t="s">
+      <c r="I58" t="s">
         <v>128</v>
       </c>
-      <c r="G58" t="s">
-        <v>322</v>
-      </c>
-      <c r="H58">
+      <c r="J58">
         <v>8786</v>
       </c>
-      <c r="I58">
+      <c r="K58">
         <v>12</v>
       </c>
-      <c r="J58" t="s">
+      <c r="L58" t="s">
         <v>350</v>
       </c>
-      <c r="K58">
+      <c r="M58">
         <v>51</v>
       </c>
-      <c r="L58" t="s">
+      <c r="N58" t="s">
         <v>238</v>
       </c>
-      <c r="M58">
+      <c r="O58">
         <v>5</v>
-      </c>
-      <c r="N58" t="s">
-        <v>411</v>
-      </c>
-      <c r="O58" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
@@ -4858,40 +4865,40 @@
         <v>385</v>
       </c>
       <c r="D59" t="s">
+        <v>319</v>
+      </c>
+      <c r="E59" t="s">
+        <v>439</v>
+      </c>
+      <c r="F59" t="s">
+        <v>432</v>
+      </c>
+      <c r="G59" t="s">
         <v>131</v>
       </c>
-      <c r="E59" t="s">
+      <c r="H59" t="s">
         <v>274</v>
       </c>
-      <c r="F59" t="s">
+      <c r="I59" t="s">
         <v>130</v>
       </c>
-      <c r="G59" t="s">
-        <v>319</v>
-      </c>
-      <c r="H59">
+      <c r="J59">
         <v>21264</v>
       </c>
-      <c r="I59">
+      <c r="K59">
         <v>12</v>
       </c>
-      <c r="J59" t="s">
+      <c r="L59" t="s">
         <v>350</v>
       </c>
-      <c r="K59">
+      <c r="M59">
         <v>58</v>
       </c>
-      <c r="L59" t="s">
+      <c r="N59" t="s">
         <v>368</v>
       </c>
-      <c r="M59">
+      <c r="O59">
         <v>49</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
@@ -4905,40 +4912,40 @@
         <v>391</v>
       </c>
       <c r="D60" t="s">
+        <v>323</v>
+      </c>
+      <c r="E60" t="s">
+        <v>412</v>
+      </c>
+      <c r="F60" t="s">
+        <v>427</v>
+      </c>
+      <c r="G60" t="s">
         <v>133</v>
       </c>
-      <c r="E60" t="s">
+      <c r="H60" t="s">
         <v>261</v>
       </c>
-      <c r="F60" t="s">
+      <c r="I60" t="s">
         <v>132</v>
       </c>
-      <c r="G60" t="s">
-        <v>323</v>
-      </c>
-      <c r="H60">
+      <c r="J60">
         <v>8654</v>
       </c>
-      <c r="I60">
+      <c r="K60">
         <v>4</v>
       </c>
-      <c r="J60" t="s">
+      <c r="L60" t="s">
         <v>350</v>
       </c>
-      <c r="K60">
+      <c r="M60">
         <v>51</v>
       </c>
-      <c r="L60" t="s">
+      <c r="N60" t="s">
         <v>239</v>
       </c>
-      <c r="M60">
+      <c r="O60">
         <v>9</v>
-      </c>
-      <c r="N60" t="s">
-        <v>412</v>
-      </c>
-      <c r="O60" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
@@ -4952,34 +4959,34 @@
         <v>219</v>
       </c>
       <c r="D61" t="s">
+        <v>324</v>
+      </c>
+      <c r="E61" t="s">
+        <v>441</v>
+      </c>
+      <c r="F61" t="s">
+        <v>427</v>
+      </c>
+      <c r="G61" t="s">
         <v>135</v>
       </c>
-      <c r="E61" t="s">
+      <c r="H61" t="s">
         <v>261</v>
       </c>
-      <c r="F61" t="s">
+      <c r="I61" t="s">
         <v>134</v>
       </c>
-      <c r="G61" t="s">
-        <v>324</v>
-      </c>
-      <c r="H61">
+      <c r="J61">
         <v>25078</v>
       </c>
-      <c r="I61">
+      <c r="K61">
         <v>11</v>
       </c>
-      <c r="J61" t="s">
+      <c r="L61" t="s">
         <v>352</v>
       </c>
-      <c r="K61">
+      <c r="M61">
         <v>5</v>
-      </c>
-      <c r="N61" t="s">
-        <v>441</v>
-      </c>
-      <c r="O61" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
@@ -4993,34 +5000,34 @@
         <v>385</v>
       </c>
       <c r="D62" t="s">
+        <v>325</v>
+      </c>
+      <c r="E62" t="s">
+        <v>442</v>
+      </c>
+      <c r="F62" t="s">
+        <v>427</v>
+      </c>
+      <c r="G62" t="s">
         <v>137</v>
       </c>
-      <c r="E62" t="s">
+      <c r="H62" t="s">
         <v>261</v>
       </c>
-      <c r="F62" t="s">
+      <c r="I62" t="s">
         <v>136</v>
       </c>
-      <c r="G62" t="s">
-        <v>325</v>
-      </c>
-      <c r="H62">
+      <c r="J62">
         <v>20734</v>
       </c>
-      <c r="I62">
+      <c r="K62">
         <v>15</v>
       </c>
-      <c r="J62" t="s">
+      <c r="L62" t="s">
         <v>352</v>
       </c>
-      <c r="K62">
+      <c r="M62">
         <v>5</v>
-      </c>
-      <c r="N62" t="s">
-        <v>442</v>
-      </c>
-      <c r="O62" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
@@ -5034,34 +5041,34 @@
         <v>391</v>
       </c>
       <c r="D63" t="s">
+        <v>326</v>
+      </c>
+      <c r="E63" t="s">
+        <v>443</v>
+      </c>
+      <c r="F63" t="s">
+        <v>429</v>
+      </c>
+      <c r="G63" t="s">
         <v>139</v>
       </c>
-      <c r="E63" t="s">
+      <c r="H63" t="s">
         <v>261</v>
       </c>
-      <c r="F63" t="s">
+      <c r="I63" t="s">
         <v>138</v>
       </c>
-      <c r="G63" t="s">
-        <v>326</v>
-      </c>
-      <c r="H63">
+      <c r="J63">
         <v>6444</v>
       </c>
-      <c r="I63">
+      <c r="K63">
         <v>4</v>
       </c>
-      <c r="J63" t="s">
+      <c r="L63" t="s">
         <v>349</v>
       </c>
-      <c r="K63">
+      <c r="M63">
         <v>5</v>
-      </c>
-      <c r="N63" t="s">
-        <v>443</v>
-      </c>
-      <c r="O63" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
@@ -5075,34 +5082,34 @@
         <v>240</v>
       </c>
       <c r="D64" t="s">
+        <v>327</v>
+      </c>
+      <c r="E64" t="s">
+        <v>415</v>
+      </c>
+      <c r="F64" t="s">
+        <v>430</v>
+      </c>
+      <c r="G64" t="s">
         <v>141</v>
       </c>
-      <c r="E64" t="s">
+      <c r="H64" t="s">
         <v>262</v>
       </c>
-      <c r="F64" t="s">
+      <c r="I64" t="s">
         <v>140</v>
       </c>
-      <c r="G64" t="s">
-        <v>327</v>
-      </c>
-      <c r="H64">
+      <c r="J64">
         <v>2706</v>
       </c>
-      <c r="I64">
+      <c r="K64">
         <v>3</v>
       </c>
-      <c r="J64" t="s">
+      <c r="L64" t="s">
         <v>350</v>
       </c>
-      <c r="K64">
+      <c r="M64">
         <v>5</v>
-      </c>
-      <c r="N64" t="s">
-        <v>415</v>
-      </c>
-      <c r="O64" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
@@ -5116,40 +5123,40 @@
         <v>221</v>
       </c>
       <c r="D65" t="s">
+        <v>328</v>
+      </c>
+      <c r="E65" t="s">
+        <v>413</v>
+      </c>
+      <c r="F65" t="s">
+        <v>430</v>
+      </c>
+      <c r="G65" t="s">
         <v>143</v>
       </c>
-      <c r="E65" t="s">
+      <c r="H65" t="s">
         <v>262</v>
       </c>
-      <c r="F65" t="s">
+      <c r="I65" t="s">
         <v>142</v>
       </c>
-      <c r="G65" t="s">
-        <v>328</v>
-      </c>
-      <c r="H65">
+      <c r="J65">
         <v>2411</v>
       </c>
-      <c r="I65">
+      <c r="K65">
         <v>6</v>
       </c>
-      <c r="J65" t="s">
+      <c r="L65" t="s">
         <v>349</v>
       </c>
-      <c r="K65">
+      <c r="M65">
         <v>53</v>
       </c>
-      <c r="L65" t="s">
+      <c r="N65" t="s">
         <v>369</v>
       </c>
-      <c r="M65">
+      <c r="O65">
         <v>17</v>
-      </c>
-      <c r="N65" t="s">
-        <v>413</v>
-      </c>
-      <c r="O65" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
@@ -5163,40 +5170,40 @@
         <v>220</v>
       </c>
       <c r="D66" t="s">
+        <v>286</v>
+      </c>
+      <c r="E66" t="s">
+        <v>397</v>
+      </c>
+      <c r="F66" t="s">
+        <v>430</v>
+      </c>
+      <c r="G66" t="s">
         <v>145</v>
       </c>
-      <c r="E66" t="s">
+      <c r="H66" t="s">
         <v>262</v>
       </c>
-      <c r="F66" t="s">
+      <c r="I66" t="s">
         <v>144</v>
       </c>
-      <c r="G66" t="s">
-        <v>286</v>
-      </c>
-      <c r="H66">
+      <c r="J66">
         <v>3416</v>
       </c>
-      <c r="I66">
+      <c r="K66">
         <v>2</v>
       </c>
-      <c r="J66" t="s">
+      <c r="L66" t="s">
         <v>349</v>
       </c>
-      <c r="K66">
+      <c r="M66">
         <v>51</v>
       </c>
-      <c r="L66" t="s">
+      <c r="N66" t="s">
         <v>241</v>
       </c>
-      <c r="M66">
+      <c r="O66">
         <v>8</v>
-      </c>
-      <c r="N66" t="s">
-        <v>397</v>
-      </c>
-      <c r="O66" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
@@ -5210,40 +5217,40 @@
         <v>383</v>
       </c>
       <c r="D67" t="s">
+        <v>329</v>
+      </c>
+      <c r="E67" t="s">
+        <v>414</v>
+      </c>
+      <c r="F67" t="s">
+        <v>430</v>
+      </c>
+      <c r="G67" t="s">
         <v>147</v>
       </c>
-      <c r="E67" t="s">
+      <c r="H67" t="s">
         <v>262</v>
       </c>
-      <c r="F67" t="s">
+      <c r="I67" t="s">
         <v>146</v>
       </c>
-      <c r="G67" t="s">
-        <v>329</v>
-      </c>
-      <c r="H67">
+      <c r="J67">
         <v>5039</v>
       </c>
-      <c r="I67">
+      <c r="K67">
         <v>11</v>
       </c>
-      <c r="J67" t="s">
+      <c r="L67" t="s">
         <v>352</v>
       </c>
-      <c r="K67">
+      <c r="M67">
         <v>52</v>
       </c>
-      <c r="L67" t="s">
+      <c r="N67" t="s">
         <v>370</v>
       </c>
-      <c r="M67">
+      <c r="O67">
         <v>11</v>
-      </c>
-      <c r="N67" t="s">
-        <v>414</v>
-      </c>
-      <c r="O67" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
@@ -5257,40 +5264,40 @@
         <v>392</v>
       </c>
       <c r="D68" t="s">
+        <v>327</v>
+      </c>
+      <c r="E68" t="s">
+        <v>415</v>
+      </c>
+      <c r="F68" t="s">
+        <v>430</v>
+      </c>
+      <c r="G68" t="s">
         <v>149</v>
       </c>
-      <c r="E68" t="s">
+      <c r="H68" t="s">
         <v>262</v>
       </c>
-      <c r="F68" t="s">
+      <c r="I68" t="s">
         <v>148</v>
       </c>
-      <c r="G68" t="s">
-        <v>327</v>
-      </c>
-      <c r="H68">
+      <c r="J68">
         <v>2505</v>
       </c>
-      <c r="I68">
+      <c r="K68">
         <v>4</v>
       </c>
-      <c r="J68" t="s">
+      <c r="L68" t="s">
         <v>349</v>
       </c>
-      <c r="K68">
+      <c r="M68">
         <v>51</v>
       </c>
-      <c r="L68" t="s">
+      <c r="N68" t="s">
         <v>242</v>
       </c>
-      <c r="M68">
+      <c r="O68">
         <v>6</v>
-      </c>
-      <c r="N68" t="s">
-        <v>415</v>
-      </c>
-      <c r="O68" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
@@ -5304,40 +5311,40 @@
         <v>237</v>
       </c>
       <c r="D69" t="s">
+        <v>330</v>
+      </c>
+      <c r="E69" t="s">
+        <v>416</v>
+      </c>
+      <c r="F69" t="s">
+        <v>427</v>
+      </c>
+      <c r="G69" t="s">
         <v>151</v>
       </c>
-      <c r="E69" t="s">
+      <c r="H69" t="s">
         <v>262</v>
       </c>
-      <c r="F69" t="s">
+      <c r="I69" t="s">
         <v>150</v>
       </c>
-      <c r="G69" t="s">
-        <v>330</v>
-      </c>
-      <c r="H69">
+      <c r="J69">
         <v>21574</v>
       </c>
-      <c r="I69">
+      <c r="K69">
         <v>6</v>
       </c>
-      <c r="J69" t="s">
+      <c r="L69" t="s">
         <v>352</v>
       </c>
-      <c r="K69">
+      <c r="M69">
         <v>52</v>
       </c>
-      <c r="L69" t="s">
+      <c r="N69" t="s">
         <v>371</v>
       </c>
-      <c r="M69">
+      <c r="O69">
         <v>18</v>
-      </c>
-      <c r="N69" t="s">
-        <v>416</v>
-      </c>
-      <c r="O69" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
@@ -5351,40 +5358,40 @@
         <v>388</v>
       </c>
       <c r="D70" t="s">
+        <v>286</v>
+      </c>
+      <c r="E70" t="s">
+        <v>397</v>
+      </c>
+      <c r="F70" t="s">
+        <v>430</v>
+      </c>
+      <c r="G70" t="s">
         <v>153</v>
       </c>
-      <c r="E70" t="s">
+      <c r="H70" t="s">
         <v>262</v>
       </c>
-      <c r="F70" t="s">
+      <c r="I70" t="s">
         <v>152</v>
       </c>
-      <c r="G70" t="s">
-        <v>286</v>
-      </c>
-      <c r="H70">
+      <c r="J70">
         <v>5571</v>
       </c>
-      <c r="I70">
+      <c r="K70">
         <v>5</v>
       </c>
-      <c r="J70" t="s">
+      <c r="L70" t="s">
         <v>352</v>
       </c>
-      <c r="K70">
+      <c r="M70">
         <v>52</v>
       </c>
-      <c r="L70" t="s">
+      <c r="N70" t="s">
         <v>372</v>
       </c>
-      <c r="M70">
+      <c r="O70">
         <v>13</v>
-      </c>
-      <c r="N70" t="s">
-        <v>397</v>
-      </c>
-      <c r="O70" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
@@ -5398,40 +5405,40 @@
         <v>391</v>
       </c>
       <c r="D71" t="s">
+        <v>331</v>
+      </c>
+      <c r="E71" t="s">
+        <v>417</v>
+      </c>
+      <c r="F71" t="s">
+        <v>427</v>
+      </c>
+      <c r="G71" t="s">
         <v>155</v>
       </c>
-      <c r="E71" t="s">
+      <c r="H71" t="s">
         <v>262</v>
       </c>
-      <c r="F71" t="s">
+      <c r="I71" t="s">
         <v>154</v>
       </c>
-      <c r="G71" t="s">
-        <v>331</v>
-      </c>
-      <c r="H71">
+      <c r="J71">
         <v>24040</v>
       </c>
-      <c r="I71">
+      <c r="K71">
         <v>25</v>
       </c>
-      <c r="J71" t="s">
+      <c r="L71" t="s">
         <v>348</v>
       </c>
-      <c r="K71">
+      <c r="M71">
         <v>53</v>
       </c>
-      <c r="L71" t="s">
+      <c r="N71" t="s">
         <v>373</v>
       </c>
-      <c r="M71">
+      <c r="O71">
         <v>20</v>
-      </c>
-      <c r="N71" t="s">
-        <v>417</v>
-      </c>
-      <c r="O71" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
@@ -5445,40 +5452,40 @@
         <v>390</v>
       </c>
       <c r="D72" t="s">
+        <v>288</v>
+      </c>
+      <c r="E72" t="s">
+        <v>223</v>
+      </c>
+      <c r="F72" t="s">
+        <v>427</v>
+      </c>
+      <c r="G72" t="s">
         <v>157</v>
       </c>
-      <c r="E72" t="s">
+      <c r="H72" t="s">
         <v>262</v>
       </c>
-      <c r="F72" t="s">
+      <c r="I72" t="s">
         <v>156</v>
       </c>
-      <c r="G72" t="s">
-        <v>288</v>
-      </c>
-      <c r="H72">
+      <c r="J72">
         <v>37502</v>
       </c>
-      <c r="I72">
+      <c r="K72">
         <v>26</v>
       </c>
-      <c r="J72" t="s">
+      <c r="L72" t="s">
         <v>352</v>
       </c>
-      <c r="K72">
+      <c r="M72">
         <v>56</v>
       </c>
-      <c r="L72" t="s">
+      <c r="N72" t="s">
         <v>374</v>
       </c>
-      <c r="M72">
+      <c r="O72">
         <v>32</v>
-      </c>
-      <c r="N72" t="s">
-        <v>223</v>
-      </c>
-      <c r="O72" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
@@ -5492,40 +5499,40 @@
         <v>237</v>
       </c>
       <c r="D73" t="s">
+        <v>330</v>
+      </c>
+      <c r="E73" t="s">
+        <v>416</v>
+      </c>
+      <c r="F73" t="s">
+        <v>427</v>
+      </c>
+      <c r="G73" t="s">
         <v>159</v>
       </c>
-      <c r="E73" t="s">
+      <c r="H73" t="s">
         <v>262</v>
       </c>
-      <c r="F73" t="s">
+      <c r="I73" t="s">
         <v>158</v>
       </c>
-      <c r="G73" t="s">
-        <v>330</v>
-      </c>
-      <c r="H73">
+      <c r="J73">
         <v>7957</v>
       </c>
-      <c r="I73">
+      <c r="K73">
         <v>6</v>
       </c>
-      <c r="J73" t="s">
+      <c r="L73" t="s">
         <v>352</v>
       </c>
-      <c r="K73">
+      <c r="M73">
         <v>53</v>
       </c>
-      <c r="L73" t="s">
+      <c r="N73" t="s">
         <v>375</v>
       </c>
-      <c r="M73">
+      <c r="O73">
         <v>27</v>
-      </c>
-      <c r="N73" t="s">
-        <v>416</v>
-      </c>
-      <c r="O73" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
@@ -5539,40 +5546,40 @@
         <v>221</v>
       </c>
       <c r="D74" t="s">
+        <v>328</v>
+      </c>
+      <c r="E74" t="s">
+        <v>413</v>
+      </c>
+      <c r="F74" t="s">
+        <v>430</v>
+      </c>
+      <c r="G74" t="s">
         <v>161</v>
       </c>
-      <c r="E74" t="s">
+      <c r="H74" t="s">
         <v>262</v>
       </c>
-      <c r="F74" t="s">
+      <c r="I74" t="s">
         <v>160</v>
       </c>
-      <c r="G74" t="s">
-        <v>328</v>
-      </c>
-      <c r="H74">
+      <c r="J74">
         <v>4665</v>
       </c>
-      <c r="I74">
+      <c r="K74">
         <v>5</v>
       </c>
-      <c r="J74" t="s">
+      <c r="L74" t="s">
         <v>348</v>
       </c>
-      <c r="K74">
+      <c r="M74">
         <v>51</v>
       </c>
-      <c r="L74" t="s">
+      <c r="N74" t="s">
         <v>243</v>
       </c>
-      <c r="M74">
+      <c r="O74">
         <v>5</v>
-      </c>
-      <c r="N74" t="s">
-        <v>413</v>
-      </c>
-      <c r="O74" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
@@ -5586,40 +5593,40 @@
         <v>244</v>
       </c>
       <c r="D75" t="s">
+        <v>286</v>
+      </c>
+      <c r="E75" t="s">
+        <v>397</v>
+      </c>
+      <c r="F75" t="s">
+        <v>430</v>
+      </c>
+      <c r="G75" t="s">
         <v>163</v>
       </c>
-      <c r="E75" t="s">
+      <c r="H75" t="s">
         <v>262</v>
       </c>
-      <c r="F75" t="s">
+      <c r="I75" t="s">
         <v>162</v>
       </c>
-      <c r="G75" t="s">
-        <v>286</v>
-      </c>
-      <c r="H75">
+      <c r="J75">
         <v>9779</v>
       </c>
-      <c r="I75">
+      <c r="K75">
         <v>11</v>
       </c>
-      <c r="J75" t="s">
+      <c r="L75" t="s">
         <v>351</v>
       </c>
-      <c r="K75">
+      <c r="M75">
         <v>52</v>
       </c>
-      <c r="L75" t="s">
+      <c r="N75" t="s">
         <v>376</v>
       </c>
-      <c r="M75">
+      <c r="O75">
         <v>19</v>
-      </c>
-      <c r="N75" t="s">
-        <v>397</v>
-      </c>
-      <c r="O75" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
@@ -5633,40 +5640,40 @@
         <v>391</v>
       </c>
       <c r="D76" t="s">
+        <v>331</v>
+      </c>
+      <c r="E76" t="s">
+        <v>417</v>
+      </c>
+      <c r="F76" t="s">
+        <v>427</v>
+      </c>
+      <c r="G76" t="s">
         <v>165</v>
       </c>
-      <c r="E76" t="s">
+      <c r="H76" t="s">
         <v>262</v>
       </c>
-      <c r="F76" t="s">
+      <c r="I76" t="s">
         <v>164</v>
       </c>
-      <c r="G76" t="s">
-        <v>331</v>
-      </c>
-      <c r="H76">
+      <c r="J76">
         <v>10503</v>
       </c>
-      <c r="I76">
+      <c r="K76">
         <v>11</v>
       </c>
-      <c r="J76" t="s">
+      <c r="L76" t="s">
         <v>350</v>
       </c>
-      <c r="K76">
+      <c r="M76">
         <v>53</v>
       </c>
-      <c r="L76" t="s">
+      <c r="N76" t="s">
         <v>377</v>
       </c>
-      <c r="M76">
+      <c r="O76">
         <v>23</v>
-      </c>
-      <c r="N76" t="s">
-        <v>417</v>
-      </c>
-      <c r="O76" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
@@ -5680,40 +5687,40 @@
         <v>246</v>
       </c>
       <c r="D77" t="s">
+        <v>330</v>
+      </c>
+      <c r="E77" t="s">
+        <v>416</v>
+      </c>
+      <c r="F77" t="s">
+        <v>427</v>
+      </c>
+      <c r="G77" t="s">
         <v>167</v>
       </c>
-      <c r="E77" t="s">
+      <c r="H77" t="s">
         <v>262</v>
       </c>
-      <c r="F77" t="s">
+      <c r="I77" t="s">
         <v>166</v>
       </c>
-      <c r="G77" t="s">
-        <v>330</v>
-      </c>
-      <c r="H77">
+      <c r="J77">
         <v>10227</v>
       </c>
-      <c r="I77">
+      <c r="K77">
         <v>6</v>
       </c>
-      <c r="J77" t="s">
+      <c r="L77" t="s">
         <v>350</v>
       </c>
-      <c r="K77">
+      <c r="M77">
         <v>51</v>
       </c>
-      <c r="L77" t="s">
+      <c r="N77" t="s">
         <v>245</v>
       </c>
-      <c r="M77">
+      <c r="O77">
         <v>5</v>
-      </c>
-      <c r="N77" t="s">
-        <v>416</v>
-      </c>
-      <c r="O77" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
@@ -5727,34 +5734,34 @@
         <v>217</v>
       </c>
       <c r="D78" t="s">
+        <v>332</v>
+      </c>
+      <c r="E78" t="s">
+        <v>421</v>
+      </c>
+      <c r="F78" t="s">
+        <v>429</v>
+      </c>
+      <c r="G78" t="s">
         <v>169</v>
       </c>
-      <c r="E78" t="s">
+      <c r="H78" t="s">
         <v>266</v>
       </c>
-      <c r="F78" t="s">
+      <c r="I78" t="s">
         <v>168</v>
       </c>
-      <c r="G78" t="s">
-        <v>332</v>
-      </c>
-      <c r="H78">
+      <c r="J78">
         <v>7588</v>
-      </c>
-      <c r="I78">
-        <v>5</v>
-      </c>
-      <c r="J78" t="s">
-        <v>352</v>
       </c>
       <c r="K78">
         <v>5</v>
       </c>
-      <c r="N78" t="s">
-        <v>421</v>
-      </c>
-      <c r="O78" t="s">
-        <v>429</v>
+      <c r="L78" t="s">
+        <v>352</v>
+      </c>
+      <c r="M78">
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
@@ -5768,40 +5775,40 @@
         <v>393</v>
       </c>
       <c r="D79" t="s">
+        <v>333</v>
+      </c>
+      <c r="E79" t="s">
+        <v>418</v>
+      </c>
+      <c r="F79" t="s">
+        <v>429</v>
+      </c>
+      <c r="G79" t="s">
         <v>171</v>
       </c>
-      <c r="E79" t="s">
+      <c r="H79" t="s">
         <v>266</v>
       </c>
-      <c r="F79" t="s">
+      <c r="I79" t="s">
         <v>170</v>
       </c>
-      <c r="G79" t="s">
-        <v>333</v>
-      </c>
-      <c r="H79">
+      <c r="J79">
         <v>11546</v>
       </c>
-      <c r="I79">
+      <c r="K79">
         <v>8</v>
       </c>
-      <c r="J79" t="s">
+      <c r="L79" t="s">
         <v>350</v>
       </c>
-      <c r="K79">
+      <c r="M79">
         <v>51</v>
       </c>
-      <c r="L79" t="s">
+      <c r="N79" t="s">
         <v>247</v>
       </c>
-      <c r="M79">
+      <c r="O79">
         <v>7</v>
-      </c>
-      <c r="N79" t="s">
-        <v>418</v>
-      </c>
-      <c r="O79" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
@@ -5815,34 +5822,34 @@
         <v>385</v>
       </c>
       <c r="D80" t="s">
+        <v>334</v>
+      </c>
+      <c r="E80" t="s">
+        <v>444</v>
+      </c>
+      <c r="F80" t="s">
+        <v>205</v>
+      </c>
+      <c r="G80" t="s">
         <v>173</v>
       </c>
-      <c r="E80" t="s">
+      <c r="H80" t="s">
         <v>266</v>
       </c>
-      <c r="F80" t="s">
+      <c r="I80" t="s">
         <v>172</v>
       </c>
-      <c r="G80" t="s">
-        <v>334</v>
-      </c>
-      <c r="H80">
+      <c r="J80">
         <v>5102</v>
       </c>
-      <c r="I80">
+      <c r="K80">
         <v>2</v>
       </c>
-      <c r="J80" t="s">
+      <c r="L80" t="s">
         <v>348</v>
       </c>
-      <c r="K80">
+      <c r="M80">
         <v>5</v>
-      </c>
-      <c r="N80" t="s">
-        <v>444</v>
-      </c>
-      <c r="O80" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
@@ -5856,34 +5863,34 @@
         <v>385</v>
       </c>
       <c r="D81" t="s">
+        <v>334</v>
+      </c>
+      <c r="E81" t="s">
+        <v>444</v>
+      </c>
+      <c r="F81" t="s">
+        <v>205</v>
+      </c>
+      <c r="G81" t="s">
         <v>175</v>
       </c>
-      <c r="E81" t="s">
+      <c r="H81" t="s">
         <v>266</v>
       </c>
-      <c r="F81" t="s">
+      <c r="I81" t="s">
         <v>174</v>
       </c>
-      <c r="G81" t="s">
-        <v>334</v>
-      </c>
-      <c r="H81">
+      <c r="J81">
         <v>5134</v>
       </c>
-      <c r="I81">
+      <c r="K81">
         <v>2</v>
       </c>
-      <c r="J81" t="s">
+      <c r="L81" t="s">
         <v>351</v>
       </c>
-      <c r="K81">
+      <c r="M81">
         <v>5</v>
-      </c>
-      <c r="N81" t="s">
-        <v>444</v>
-      </c>
-      <c r="O81" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
@@ -5897,40 +5904,40 @@
         <v>385</v>
       </c>
       <c r="D82" t="s">
+        <v>289</v>
+      </c>
+      <c r="E82" t="s">
+        <v>399</v>
+      </c>
+      <c r="F82" t="s">
+        <v>205</v>
+      </c>
+      <c r="G82" t="s">
         <v>177</v>
       </c>
-      <c r="E82" t="s">
+      <c r="H82" t="s">
         <v>266</v>
       </c>
-      <c r="F82" t="s">
+      <c r="I82" t="s">
         <v>176</v>
       </c>
-      <c r="G82" t="s">
-        <v>289</v>
-      </c>
-      <c r="H82">
+      <c r="J82">
         <v>6703</v>
       </c>
-      <c r="I82">
+      <c r="K82">
         <v>4</v>
       </c>
-      <c r="J82" t="s">
+      <c r="L82" t="s">
         <v>350</v>
       </c>
-      <c r="K82">
+      <c r="M82">
         <v>51</v>
       </c>
-      <c r="L82" t="s">
+      <c r="N82" t="s">
         <v>248</v>
       </c>
-      <c r="M82">
+      <c r="O82">
         <v>7</v>
-      </c>
-      <c r="N82" t="s">
-        <v>399</v>
-      </c>
-      <c r="O82" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
@@ -5944,40 +5951,40 @@
         <v>250</v>
       </c>
       <c r="D83" t="s">
+        <v>335</v>
+      </c>
+      <c r="E83" t="s">
+        <v>419</v>
+      </c>
+      <c r="F83" t="s">
+        <v>427</v>
+      </c>
+      <c r="G83" t="s">
         <v>179</v>
       </c>
-      <c r="E83" t="s">
+      <c r="H83" t="s">
         <v>266</v>
       </c>
-      <c r="F83" t="s">
+      <c r="I83" t="s">
         <v>178</v>
       </c>
-      <c r="G83" t="s">
-        <v>335</v>
-      </c>
-      <c r="H83">
+      <c r="J83">
         <v>3344</v>
       </c>
-      <c r="I83">
+      <c r="K83">
         <v>2</v>
       </c>
-      <c r="J83" t="s">
+      <c r="L83" t="s">
         <v>352</v>
       </c>
-      <c r="K83">
+      <c r="M83">
         <v>51</v>
       </c>
-      <c r="L83" t="s">
+      <c r="N83" t="s">
         <v>249</v>
       </c>
-      <c r="M83">
+      <c r="O83">
         <v>7</v>
-      </c>
-      <c r="N83" t="s">
-        <v>419</v>
-      </c>
-      <c r="O83" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
@@ -5991,40 +5998,40 @@
         <v>251</v>
       </c>
       <c r="D84" t="s">
+        <v>336</v>
+      </c>
+      <c r="E84" t="s">
+        <v>420</v>
+      </c>
+      <c r="F84" t="s">
+        <v>427</v>
+      </c>
+      <c r="G84" t="s">
         <v>181</v>
       </c>
-      <c r="E84" t="s">
+      <c r="H84" t="s">
         <v>266</v>
       </c>
-      <c r="F84" t="s">
+      <c r="I84" t="s">
         <v>180</v>
       </c>
-      <c r="G84" t="s">
-        <v>336</v>
-      </c>
-      <c r="H84">
+      <c r="J84">
         <v>11034</v>
       </c>
-      <c r="I84">
+      <c r="K84">
         <v>6</v>
       </c>
-      <c r="J84" t="s">
+      <c r="L84" t="s">
         <v>352</v>
       </c>
-      <c r="K84">
+      <c r="M84">
         <v>53</v>
       </c>
-      <c r="L84" t="s">
+      <c r="N84" t="s">
         <v>378</v>
       </c>
-      <c r="M84">
+      <c r="O84">
         <v>17</v>
-      </c>
-      <c r="N84" t="s">
-        <v>420</v>
-      </c>
-      <c r="O84" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
@@ -6038,40 +6045,40 @@
         <v>217</v>
       </c>
       <c r="D85" t="s">
+        <v>332</v>
+      </c>
+      <c r="E85" t="s">
+        <v>421</v>
+      </c>
+      <c r="F85" t="s">
+        <v>429</v>
+      </c>
+      <c r="G85" t="s">
         <v>183</v>
       </c>
-      <c r="E85" t="s">
+      <c r="H85" t="s">
         <v>266</v>
       </c>
-      <c r="F85" t="s">
+      <c r="I85" t="s">
         <v>182</v>
       </c>
-      <c r="G85" t="s">
-        <v>332</v>
-      </c>
-      <c r="H85">
+      <c r="J85">
         <v>13336</v>
       </c>
-      <c r="I85">
+      <c r="K85">
         <v>11</v>
       </c>
-      <c r="J85" t="s">
+      <c r="L85" t="s">
         <v>352</v>
       </c>
-      <c r="K85">
+      <c r="M85">
         <v>53</v>
       </c>
-      <c r="L85" t="s">
+      <c r="N85" t="s">
         <v>379</v>
       </c>
-      <c r="M85">
+      <c r="O85">
         <v>21</v>
-      </c>
-      <c r="N85" t="s">
-        <v>421</v>
-      </c>
-      <c r="O85" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
@@ -6085,34 +6092,34 @@
         <v>220</v>
       </c>
       <c r="D86" t="s">
+        <v>345</v>
+      </c>
+      <c r="E86" t="s">
+        <v>451</v>
+      </c>
+      <c r="F86" t="s">
+        <v>429</v>
+      </c>
+      <c r="G86" t="s">
         <v>185</v>
       </c>
-      <c r="E86" t="s">
+      <c r="H86" t="s">
         <v>277</v>
       </c>
-      <c r="F86" t="s">
+      <c r="I86" t="s">
         <v>184</v>
       </c>
-      <c r="G86" t="s">
-        <v>345</v>
-      </c>
-      <c r="H86">
+      <c r="J86">
         <v>15397</v>
       </c>
-      <c r="I86">
+      <c r="K86">
         <v>8</v>
       </c>
-      <c r="J86" t="s">
+      <c r="L86" t="s">
         <v>349</v>
       </c>
-      <c r="K86">
+      <c r="M86">
         <v>5</v>
-      </c>
-      <c r="N86" t="s">
-        <v>445</v>
-      </c>
-      <c r="O86" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
@@ -6126,40 +6133,40 @@
         <v>252</v>
       </c>
       <c r="D87" t="s">
+        <v>337</v>
+      </c>
+      <c r="E87" t="s">
+        <v>422</v>
+      </c>
+      <c r="F87" t="s">
+        <v>429</v>
+      </c>
+      <c r="G87" t="s">
         <v>187</v>
       </c>
-      <c r="E87" t="s">
+      <c r="H87" t="s">
         <v>266</v>
       </c>
-      <c r="F87" t="s">
+      <c r="I87" t="s">
         <v>186</v>
       </c>
-      <c r="G87" t="s">
-        <v>337</v>
-      </c>
-      <c r="H87">
+      <c r="J87">
         <v>3697</v>
       </c>
-      <c r="I87">
+      <c r="K87">
         <v>6</v>
       </c>
-      <c r="J87" t="s">
+      <c r="L87" t="s">
         <v>348</v>
       </c>
-      <c r="K87">
+      <c r="M87">
         <v>53</v>
       </c>
-      <c r="L87" t="s">
+      <c r="N87" t="s">
         <v>380</v>
       </c>
-      <c r="M87">
+      <c r="O87">
         <v>25</v>
-      </c>
-      <c r="N87" t="s">
-        <v>422</v>
-      </c>
-      <c r="O87" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
@@ -6173,40 +6180,40 @@
         <v>250</v>
       </c>
       <c r="D88" t="s">
+        <v>338</v>
+      </c>
+      <c r="E88" t="s">
+        <v>423</v>
+      </c>
+      <c r="F88" t="s">
+        <v>205</v>
+      </c>
+      <c r="G88" t="s">
         <v>189</v>
       </c>
-      <c r="E88" t="s">
+      <c r="H88" t="s">
         <v>266</v>
       </c>
-      <c r="F88" t="s">
+      <c r="I88" t="s">
         <v>188</v>
       </c>
-      <c r="G88" t="s">
-        <v>338</v>
-      </c>
-      <c r="H88">
+      <c r="J88">
         <v>9174</v>
       </c>
-      <c r="I88">
+      <c r="K88">
         <v>6</v>
       </c>
-      <c r="J88" t="s">
+      <c r="L88" t="s">
         <v>350</v>
       </c>
-      <c r="K88">
+      <c r="M88">
         <v>53</v>
       </c>
-      <c r="L88" t="s">
+      <c r="N88" t="s">
         <v>381</v>
       </c>
-      <c r="M88">
+      <c r="O88">
         <v>17</v>
-      </c>
-      <c r="N88" t="s">
-        <v>423</v>
-      </c>
-      <c r="O88" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
@@ -6220,40 +6227,40 @@
         <v>385</v>
       </c>
       <c r="D89" t="s">
+        <v>338</v>
+      </c>
+      <c r="E89" t="s">
+        <v>423</v>
+      </c>
+      <c r="F89" t="s">
+        <v>205</v>
+      </c>
+      <c r="G89" t="s">
         <v>191</v>
       </c>
-      <c r="E89" t="s">
+      <c r="H89" t="s">
         <v>266</v>
       </c>
-      <c r="F89" t="s">
+      <c r="I89" t="s">
         <v>190</v>
       </c>
-      <c r="G89" t="s">
-        <v>338</v>
-      </c>
-      <c r="H89">
+      <c r="J89">
         <v>22198</v>
       </c>
-      <c r="I89">
+      <c r="K89">
         <v>8</v>
       </c>
-      <c r="J89" t="s">
+      <c r="L89" t="s">
         <v>352</v>
       </c>
-      <c r="K89">
+      <c r="M89">
         <v>51</v>
       </c>
-      <c r="L89" t="s">
+      <c r="N89" t="s">
         <v>253</v>
       </c>
-      <c r="M89">
+      <c r="O89">
         <v>6</v>
-      </c>
-      <c r="N89" t="s">
-        <v>423</v>
-      </c>
-      <c r="O89" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
@@ -6267,34 +6274,34 @@
         <v>214</v>
       </c>
       <c r="D90" t="s">
+        <v>345</v>
+      </c>
+      <c r="E90" t="s">
+        <v>451</v>
+      </c>
+      <c r="F90" t="s">
+        <v>429</v>
+      </c>
+      <c r="G90" t="s">
         <v>193</v>
       </c>
-      <c r="E90" t="s">
+      <c r="H90" t="s">
         <v>277</v>
       </c>
-      <c r="F90" t="s">
+      <c r="I90" t="s">
         <v>192</v>
       </c>
-      <c r="G90" t="s">
-        <v>345</v>
-      </c>
-      <c r="H90">
+      <c r="J90">
         <v>17665</v>
       </c>
-      <c r="I90">
+      <c r="K90">
         <v>8</v>
       </c>
-      <c r="J90" t="s">
+      <c r="L90" t="s">
         <v>349</v>
       </c>
-      <c r="K90">
+      <c r="M90">
         <v>5</v>
-      </c>
-      <c r="N90" t="s">
-        <v>445</v>
-      </c>
-      <c r="O90" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
@@ -6308,40 +6315,40 @@
         <v>393</v>
       </c>
       <c r="D91" t="s">
+        <v>333</v>
+      </c>
+      <c r="E91" t="s">
+        <v>418</v>
+      </c>
+      <c r="F91" t="s">
+        <v>429</v>
+      </c>
+      <c r="G91" t="s">
         <v>195</v>
       </c>
-      <c r="E91" t="s">
+      <c r="H91" t="s">
         <v>266</v>
       </c>
-      <c r="F91" t="s">
+      <c r="I91" t="s">
         <v>194</v>
       </c>
-      <c r="G91" t="s">
-        <v>333</v>
-      </c>
-      <c r="H91">
+      <c r="J91">
         <v>16610</v>
       </c>
-      <c r="I91">
+      <c r="K91">
         <v>8</v>
       </c>
-      <c r="J91" t="s">
+      <c r="L91" t="s">
         <v>349</v>
       </c>
-      <c r="K91">
+      <c r="M91">
         <v>52</v>
       </c>
-      <c r="L91" t="s">
+      <c r="N91" t="s">
         <v>382</v>
       </c>
-      <c r="M91">
+      <c r="O91">
         <v>10</v>
-      </c>
-      <c r="N91" t="s">
-        <v>418</v>
-      </c>
-      <c r="O91" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
@@ -6355,34 +6362,34 @@
         <v>252</v>
       </c>
       <c r="D92" t="s">
+        <v>337</v>
+      </c>
+      <c r="E92" t="s">
+        <v>422</v>
+      </c>
+      <c r="F92" t="s">
+        <v>429</v>
+      </c>
+      <c r="G92" t="s">
         <v>197</v>
       </c>
-      <c r="E92" t="s">
+      <c r="H92" t="s">
         <v>266</v>
       </c>
-      <c r="F92" t="s">
+      <c r="I92" t="s">
         <v>196</v>
       </c>
-      <c r="G92" t="s">
-        <v>337</v>
-      </c>
-      <c r="H92">
+      <c r="J92">
         <v>11416</v>
       </c>
-      <c r="I92">
+      <c r="K92">
         <v>7</v>
       </c>
-      <c r="J92" t="s">
+      <c r="L92" t="s">
         <v>349</v>
       </c>
-      <c r="K92">
+      <c r="M92">
         <v>5</v>
-      </c>
-      <c r="N92" t="s">
-        <v>422</v>
-      </c>
-      <c r="O92" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
@@ -6396,34 +6403,34 @@
         <v>252</v>
       </c>
       <c r="D93" t="s">
+        <v>337</v>
+      </c>
+      <c r="E93" t="s">
+        <v>422</v>
+      </c>
+      <c r="F93" t="s">
+        <v>429</v>
+      </c>
+      <c r="G93" t="s">
         <v>199</v>
       </c>
-      <c r="E93" t="s">
+      <c r="H93" t="s">
         <v>266</v>
       </c>
-      <c r="F93" t="s">
+      <c r="I93" t="s">
         <v>198</v>
       </c>
-      <c r="G93" t="s">
-        <v>337</v>
-      </c>
-      <c r="H93">
+      <c r="J93">
         <v>8105</v>
       </c>
-      <c r="I93">
+      <c r="K93">
         <v>7</v>
       </c>
-      <c r="J93" t="s">
+      <c r="L93" t="s">
         <v>350</v>
       </c>
-      <c r="K93">
+      <c r="M93">
         <v>5</v>
-      </c>
-      <c r="N93" t="s">
-        <v>422</v>
-      </c>
-      <c r="O93" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
@@ -6437,43 +6444,43 @@
         <v>251</v>
       </c>
       <c r="D94" t="s">
+        <v>336</v>
+      </c>
+      <c r="E94" t="s">
+        <v>420</v>
+      </c>
+      <c r="F94" t="s">
+        <v>427</v>
+      </c>
+      <c r="G94" t="s">
         <v>201</v>
       </c>
-      <c r="E94" t="s">
+      <c r="H94" t="s">
         <v>266</v>
       </c>
-      <c r="F94" t="s">
+      <c r="I94" t="s">
         <v>200</v>
       </c>
-      <c r="G94" t="s">
-        <v>336</v>
-      </c>
-      <c r="H94">
+      <c r="J94">
         <v>4412</v>
       </c>
-      <c r="I94">
+      <c r="K94">
         <v>4</v>
       </c>
-      <c r="J94" t="s">
+      <c r="L94" t="s">
         <v>352</v>
       </c>
-      <c r="K94">
+      <c r="M94">
         <v>51</v>
       </c>
-      <c r="L94" t="s">
+      <c r="N94" t="s">
         <v>254</v>
       </c>
-      <c r="M94">
+      <c r="O94">
         <v>6</v>
       </c>
-      <c r="N94" t="s">
-        <v>420</v>
-      </c>
-      <c r="O94" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>202</v>
       </c>
@@ -6484,34 +6491,34 @@
         <v>386</v>
       </c>
       <c r="D95" t="s">
+        <v>346</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F95" t="s">
+        <v>429</v>
+      </c>
+      <c r="G95" t="s">
         <v>203</v>
       </c>
-      <c r="E95" t="s">
+      <c r="H95" t="s">
         <v>278</v>
       </c>
-      <c r="F95" t="s">
+      <c r="I95" t="s">
         <v>202</v>
       </c>
-      <c r="G95" t="s">
-        <v>346</v>
-      </c>
-      <c r="H95">
+      <c r="J95">
         <v>7238</v>
       </c>
-      <c r="I95">
+      <c r="K95">
         <v>4</v>
       </c>
-      <c r="J95" t="s">
+      <c r="L95" t="s">
         <v>352</v>
       </c>
-      <c r="K95">
+      <c r="M95">
         <v>5</v>
-      </c>
-      <c r="N95" t="s">
-        <v>446</v>
-      </c>
-      <c r="O95" t="s">
-        <v>429</v>
       </c>
     </row>
   </sheetData>
